--- a/project/Game_of_Thrones_Filtered_Interactions.xlsx
+++ b/project/Game_of_Thrones_Filtered_Interactions.xlsx
@@ -12874,7 +12874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13137,7 +13137,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>arya stark-gendry baratheon</t>
+          <t>osha-jojen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13147,7 +13147,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>osha-jojen</t>
+          <t>arya stark-gendry baratheon</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -13227,7 +13227,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>anguy-thoros</t>
+          <t>joffrey lannister-tywin lannister</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13237,7 +13237,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>joffrey lannister-tywin lannister</t>
+          <t>anguy-thoros</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13257,7 +13257,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cersei lannister-joffrey lannister</t>
+          <t>mance-jon snow</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13267,7 +13267,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mance-jon snow</t>
+          <t>cersei lannister-joffrey lannister</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -13307,7 +13307,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>shae-sansa stark</t>
+          <t>davos-melisandre</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13317,7 +13317,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>davos-melisandre</t>
+          <t>shae-sansa stark</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13327,7 +13327,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>meera-jojen</t>
+          <t>talisa-catelyn stark</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13337,7 +13337,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>talisa-catelyn stark</t>
+          <t>meera-jojen</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -13357,7 +13357,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>orell-jon snow</t>
+          <t>shireen-davos</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -13367,7 +13367,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>shireen-davos</t>
+          <t>orell-jon snow</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -13397,7 +13397,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tormund-ygritte</t>
+          <t>roose bolton-jaime lannister</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13407,7 +13407,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>joffrey lannister-tyrion lannister</t>
+          <t>tormund-ygritte</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -13417,7 +13417,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>roose bolton-jaime lannister</t>
+          <t>joffrey lannister-tyrion lannister</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -13507,7 +13507,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>podrick-bronn</t>
+          <t>violet-myranda</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -13517,7 +13517,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>orell-ygritte</t>
+          <t>podrick-bronn</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -13527,7 +13527,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>violet-myranda</t>
+          <t>orell-ygritte</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -13537,7 +13537,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>beric-sandor clegane</t>
+          <t>podrick-tyrion lannister</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -13547,7 +13547,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>daario-daenerys targaryen</t>
+          <t>beric-sandor clegane</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -13557,7 +13557,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>podrick-tyrion lannister</t>
+          <t>davos-salladhor</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -13567,7 +13567,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>davos-salladhor</t>
+          <t>daario-daenerys targaryen</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -13577,7 +13577,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>loras tyrell-sansa stark</t>
+          <t>tyrion lannister-varys</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -13587,7 +13587,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>tyrion lannister-varys</t>
+          <t>loras tyrell-sansa stark</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -13657,7 +13657,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mero-daario</t>
+          <t>kraznys mo nakloz-missandei</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -13667,7 +13667,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kraznys mo nakloz-missandei</t>
+          <t>mero-daario</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -13677,7 +13677,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>loras tyrell-margaery tyrell</t>
+          <t>stannis baratheon-selyse</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -13687,7 +13687,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>stannis baratheon-selyse</t>
+          <t>loras tyrell-margaery tyrell</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -13697,7 +13697,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>osha-rickon stark</t>
+          <t>shireen-stannis baratheon</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -13707,7 +13707,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>shireen-stannis baratheon</t>
+          <t>osha-rickon stark</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -13727,7 +13727,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>radzal mo eraz-daenerys targaryen</t>
+          <t>melisandre-thoros</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -13737,7 +13737,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>shae-varys</t>
+          <t>thoros-sandor clegane</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -13747,7 +13747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>thoros-sandor clegane</t>
+          <t>walder frey-roose bolton</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -13757,7 +13757,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>grenn-rast</t>
+          <t>walder frey-catelyn stark</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -13767,7 +13767,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>arya stark-hot pie</t>
+          <t>grenn-rast</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -13787,7 +13787,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>walder frey-catelyn stark</t>
+          <t>arya stark-hot pie</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -13797,7 +13797,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>melisandre-thoros</t>
+          <t>tormund-mance</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -13807,7 +13807,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>walder frey-roose bolton</t>
+          <t>shae-varys</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -13817,7 +13817,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>tormund-mance</t>
+          <t>radzal mo eraz-daenerys targaryen</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -13877,7 +13877,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>robb stark-black walder</t>
+          <t>mero-prendahl</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -13887,7 +13887,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>brienne-locke</t>
+          <t>anguy-beric</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -13897,7 +13897,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sansa stark-tywin lannister</t>
+          <t>robb stark-black walder</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13907,7 +13907,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>anguy-beric</t>
+          <t>daario-jorah mormont</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -13917,7 +13917,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mero-prendahl</t>
+          <t>brienne-locke</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -13927,7 +13927,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>daario-jorah mormont</t>
+          <t>sansa stark-tywin lannister</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -13937,7 +13937,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>brynden-edmure</t>
+          <t>rast-edd</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -13947,7 +13947,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>edmure-black walder</t>
+          <t>margaery tyrell-tyrion lannister</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -13957,7 +13957,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>daenerys targaryen-tyrion lannister</t>
+          <t>maester aemon-gilly</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -13967,7 +13967,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maester aemon-gilly</t>
+          <t>brynden-edmure</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -13977,7 +13977,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>joffrey lannister-sansa stark</t>
+          <t>daenerys targaryen-tyrion lannister</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -13987,7 +13987,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>maester aemon-sam</t>
+          <t>edmure-black walder</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -13997,7 +13997,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>stannis baratheon-daenerys targaryen</t>
+          <t>arya stark-frey soldier</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -14007,7 +14007,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>margaery tyrell-tyrion lannister</t>
+          <t>steelshanks walton-jaime lannister</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -14017,7 +14017,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>rast-edd</t>
+          <t>joffrey lannister-sansa stark</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -14027,7 +14027,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>arya stark-frey soldier</t>
+          <t>arya stark-melisandre</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -14037,7 +14037,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>arya stark-melisandre</t>
+          <t>stannis baratheon-daenerys targaryen</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -14047,7 +14047,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>steelshanks walton-jaime lannister</t>
+          <t>maester aemon-sam</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -14057,7 +14057,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>petyr baelish-tywin lannister</t>
+          <t>davos-sam</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -14067,7 +14067,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cersei lannister-petyr baelish</t>
+          <t>arya stark-jon snow</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -14077,7 +14077,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>arya stark-jon snow</t>
+          <t>petyr baelish-tywin lannister</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -14087,7 +14087,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>loras tyrell-olyvar</t>
+          <t>cersei lannister-petyr baelish</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -14097,7 +14097,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>davos-sam</t>
+          <t>loras tyrell-olyvar</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -14107,7 +14107,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cersei lannister-sansa stark</t>
+          <t>olenna tyrell-margaery tyrell</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -14127,7 +14127,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>shae-ros</t>
+          <t>cersei lannister-sansa stark</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -14137,7 +14137,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>olenna tyrell-margaery tyrell</t>
+          <t>shae-ros</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -14157,7 +14157,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>thoros-gendry baratheon</t>
+          <t>anguy-melisandre</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -14167,7 +14167,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>theon greyjoy-violet</t>
+          <t>grenn-sam</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -14177,7 +14177,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>loras tyrell-cersei lannister</t>
+          <t>hot pie-gendry baratheon</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -14187,7 +14187,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hot pie-gendry baratheon</t>
+          <t>loras tyrell-cersei lannister</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -14197,7 +14197,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bronn-meryn trant</t>
+          <t>thoros-gendry baratheon</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -14207,7 +14207,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>jorah mormont-missandei</t>
+          <t>talisa-martyn</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -14217,7 +14217,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>talisa-martyn</t>
+          <t>bronn-meryn trant</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -14227,7 +14227,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>grenn-sam</t>
+          <t>jorah mormont-missandei</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -14237,7 +14237,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>anguy-melisandre</t>
+          <t>shae-cersei lannister</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -14247,7 +14247,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>shae-cersei lannister</t>
+          <t>theon greyjoy-violet</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -14257,7 +14257,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jeor mormont-rast</t>
+          <t>daenerys targaryen-kraznys mo nakloz</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -14267,7 +14267,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>daario-prendahl</t>
+          <t>catelyn stark-blackfish</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -14277,7 +14277,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sandor clegane-frey guard</t>
+          <t>meera-rickon stark</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -14297,7 +14297,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>catelyn stark-blackfish</t>
+          <t>sandor clegane-frey guard</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -14317,7 +14317,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>meera-rickon stark</t>
+          <t>daario-prendahl</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -14327,7 +14327,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>daenerys targaryen-kraznys mo nakloz</t>
+          <t>jeor mormont-rast</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -14337,7 +14337,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>shireen-jaime lannister</t>
+          <t>pig farmer-sandor clegane</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -14347,7 +14347,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lothar-black walder</t>
+          <t>arya stark-bran stark</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -14357,7 +14357,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>arya stark-bran stark</t>
+          <t>gilly-jojen</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -14367,7 +14367,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>pig farmer-sandor clegane</t>
+          <t>lothar-edmure</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -14377,7 +14377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>lothar-edmure</t>
+          <t>catelyn stark-bran stark</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -14387,7 +14387,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>gilly-jojen</t>
+          <t>shireen-jaime lannister</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -14397,7 +14397,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>catelyn stark-bran stark</t>
+          <t>lothar-black walder</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -14407,7 +14407,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>daenerys targaryen-grey worm</t>
+          <t>roose bolton-locke</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -14427,7 +14427,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>melisandre-daenerys targaryen</t>
+          <t>davos-jorah mormont</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -14437,7 +14437,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>roose bolton-locke</t>
+          <t>whore-bronn</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -14447,7 +14447,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>davos-jorah mormont</t>
+          <t>daenerys targaryen-grey worm</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -14457,7 +14457,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sam-edd</t>
+          <t>melisandre-daenerys targaryen</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -14467,7 +14467,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>whore-bronn</t>
+          <t>sam-edd</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -14477,7 +14477,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>shae-daenerys targaryen</t>
+          <t>tyrion lannister-missandei</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -14487,7 +14487,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>balon greyjoy-yara greyjoy</t>
+          <t>meera-gilly</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -14497,7 +14497,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>arya stark-ygritte</t>
+          <t>shae-daenerys targaryen</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -14517,7 +14517,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>melisandre-tyrion lannister</t>
+          <t>balon greyjoy-yara greyjoy</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -14527,7 +14527,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sandor clegane-bran stark</t>
+          <t>melisandre-tyrion lannister</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -14537,7 +14537,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>meera-gilly</t>
+          <t>talisa-rickard karstark</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -14547,7 +14547,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>shae-gendry baratheon</t>
+          <t>orell-jojen</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -14557,7 +14557,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>tyrion lannister-meryn trant</t>
+          <t>arya stark-ygritte</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -14567,7 +14567,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>talisa-rickard karstark</t>
+          <t>blackfish-roose</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -14577,7 +14577,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>orell-jojen</t>
+          <t>tyrion lannister-meryn trant</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -14587,7 +14587,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>shae-petyr baelish</t>
+          <t>shae-gendry baratheon</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -14597,7 +14597,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>tyrion lannister-missandei</t>
+          <t>sandor clegane-bran stark</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -14607,7 +14607,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>blackfish-roose</t>
+          <t>shae-petyr baelish</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -14617,7 +14617,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>talisa-mance</t>
+          <t>talisa-qyburn</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -14627,7 +14627,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>talisa-qyburn</t>
+          <t>roose bolton-talisa</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -14647,7 +14647,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>roose bolton-rickard karstark</t>
+          <t>jojen-rickon stark</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -14657,7 +14657,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jojen-rickon stark</t>
+          <t>walder frey-talisa</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -14667,7 +14667,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>robb stark-sansa stark</t>
+          <t>jaime lannister-cersei lannister</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -14677,7 +14677,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>roose bolton-talisa</t>
+          <t>tywin lannister-varys</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -14687,7 +14687,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>walder frey-talisa</t>
+          <t>roose bolton-rickard karstark</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -14697,7 +14697,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>tormund-arya stark</t>
+          <t>loras tyrell-joffrey lannister</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -14707,7 +14707,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>bronn-cersei lannister</t>
+          <t>robb stark-sansa stark</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -14717,7 +14717,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>tywin lannister-varys</t>
+          <t>orell-sansa stark</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -14727,7 +14727,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>shireen-brienne</t>
+          <t>talisa-mance</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -14737,7 +14737,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mero-stannis baratheon</t>
+          <t>arya stark-jojen</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -14757,7 +14757,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>gilly-bran stark</t>
+          <t>bronn-cersei lannister</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -14767,7 +14767,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>arya stark-jojen</t>
+          <t>mero-stannis baratheon</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -14777,7 +14777,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>orell-sansa stark</t>
+          <t>gilly-bran stark</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -14787,7 +14787,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>loras tyrell-joffrey lannister</t>
+          <t>shireen-brienne</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -14797,7 +14797,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>jaime lannister-cersei lannister</t>
+          <t>tormund-arya stark</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14807,7 +14807,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>melisandre-beric</t>
+          <t>tyrion lannister-septon</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14817,7 +14817,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>mero-barristan</t>
+          <t>tormund-jojen</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14827,7 +14827,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>tyrion lannister-septon</t>
+          <t>catelyn stark-roose</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14837,7 +14837,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>arya stark-robb stark</t>
+          <t>sam-daenerys targaryen</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14847,7 +14847,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>olyvar-sansa stark</t>
+          <t>mero-barristan</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14857,7 +14857,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>catelyn stark-roose</t>
+          <t>orell-bran stark</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14867,7 +14867,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>olyvar-petyr baelish</t>
+          <t>theon greyjoy-ygritte</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14877,7 +14877,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tormund-jojen</t>
+          <t>melisandre-beric</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14887,7 +14887,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sam-daenerys targaryen</t>
+          <t>arya stark-robb stark</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14897,7 +14897,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>margaery tyrell-maid</t>
+          <t>catelyn stark-jon snow</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14907,7 +14907,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>theon greyjoy-ygritte</t>
+          <t>walder frey-sandor clegane</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14917,7 +14917,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sam-rast</t>
+          <t>olyvar-petyr baelish</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14927,7 +14927,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>catelyn stark-jon snow</t>
+          <t>olyvar-sansa stark</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14937,7 +14937,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>walder frey-sandor clegane</t>
+          <t>sam-rast</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14947,7 +14947,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>orell-bran stark</t>
+          <t>orell-mance</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -14957,17 +14957,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>orell-mance</t>
+          <t>sandor clegane-frey soldier</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ramsay bolton-locke</t>
+          <t>arya stark-pig farmer</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -14977,7 +14977,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ygritte-sandor clegane</t>
+          <t>orell-olenna tyrell</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -14987,7 +14987,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>arya stark-pig farmer</t>
+          <t>shireen-selyse</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -14997,7 +14997,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>osha-qyburn</t>
+          <t>sandor clegane-gilly</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15007,7 +15007,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>qyburn-robb stark</t>
+          <t>daario-tyrion lannister</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15017,7 +15017,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sandor clegane-gilly</t>
+          <t>ramsay bolton-myranda</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15027,7 +15027,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>shireen-selyse</t>
+          <t>jojen-gendry baratheon</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15037,7 +15037,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>talisa-brynden</t>
+          <t>gilly-rast</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15047,7 +15047,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>robb stark-tywin lannister</t>
+          <t>osha-qyburn</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15057,7 +15057,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jojen-gendry baratheon</t>
+          <t>talisa-jon snow</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15077,7 +15077,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ramsay bolton-myranda</t>
+          <t>roose bolton-ramsay bolton</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15087,7 +15087,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>beric-missandei</t>
+          <t>robb stark-tywin lannister</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -15097,7 +15097,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>talisa-tormund</t>
+          <t>qyburn-robb stark</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -15107,7 +15107,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>daario-tyrion lannister</t>
+          <t>ramsay bolton-locke</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -15117,7 +15117,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>orell-olenna tyrell</t>
+          <t>osha-sam</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -15127,7 +15127,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>joffrey lannister-maid</t>
+          <t>lothar-robb stark</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -15137,7 +15137,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>gilly-rast</t>
+          <t>cersei lannister-frey soldier</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -15147,7 +15147,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>lothar-robb stark</t>
+          <t>davos-daenerys targaryen</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -15157,7 +15157,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>davos-daenerys targaryen</t>
+          <t>osha-daenerys targaryen</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -15167,7 +15167,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>walder frey-frey guard</t>
+          <t>jaime lannister-sandor clegane</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -15177,7 +15177,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>whore-podrick</t>
+          <t>qyburn-brienne</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -15187,7 +15187,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>qyburn-brienne</t>
+          <t>whore-podrick</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -15197,7 +15197,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jaime lannister-sandor clegane</t>
+          <t>ygritte-sandor clegane</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -15207,7 +15207,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>brienne-thoros</t>
+          <t>talisa-osha</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15217,7 +15217,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>talisa-jon snow</t>
+          <t>walder frey-frey guard</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -15227,7 +15227,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>talisa-osha</t>
+          <t>talisa-brynden</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -15237,7 +15237,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>roose bolton-ramsay bolton</t>
+          <t>brienne-thoros</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -15247,7 +15247,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>osha-sam</t>
+          <t>beric-missandei</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -15257,7 +15257,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>osha-daenerys targaryen</t>
+          <t>talisa-tormund</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -15267,27 +15267,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sandor clegane-frey soldier</t>
+          <t>robb stark-jorah mormont</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>cersei lannister-frey soldier</t>
+          <t>melisandre-ygritte</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>davos-varys</t>
+          <t>loras tyrell-tyrion lannister</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -15297,7 +15297,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ros-jorah mormont</t>
+          <t>olenna tyrell-petyr baelish</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -15307,7 +15307,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>petyr baelish-ros</t>
+          <t>bronn-tywin lannister</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -15317,7 +15317,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>catelyn stark-varys</t>
+          <t>roose bolton-olenna tyrell</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -15327,7 +15327,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>shae-tywin lannister</t>
+          <t>arya stark-selyse</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -15337,7 +15337,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>cersei lannister-missandei</t>
+          <t>catelyn stark-jojen</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -15357,7 +15357,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>olenna tyrell-petyr baelish</t>
+          <t>ramsay bolton-violet</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -15367,7 +15367,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>bronn-davos</t>
+          <t>arya stark-tyrion lannister</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -15377,7 +15377,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>bronn-tywin lannister</t>
+          <t>catelyn stark-varys</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -15387,7 +15387,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>tormund-robb stark</t>
+          <t>robb stark-martyn</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -15397,7 +15397,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>loras tyrell-tyrion lannister</t>
+          <t>arya stark-rickard karstark</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -15407,7 +15407,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>tywin lannister-jorah mormont</t>
+          <t>shireen-jorah mormont</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -15427,7 +15427,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>bronn-mance</t>
+          <t>talisa-edmure</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -15437,7 +15437,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>roose bolton-olenna tyrell</t>
+          <t>theon greyjoy-jon snow</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -15447,7 +15447,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>radzal mo eraz-missandei</t>
+          <t>tywin lannister-jorah mormont</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -15457,7 +15457,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>stannis baratheon-gendry baratheon</t>
+          <t>osha-jaime lannister</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -15467,7 +15467,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ramsay bolton-tormund</t>
+          <t>tormund-robb stark</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -15477,7 +15477,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>melisandre-ygritte</t>
+          <t>sandor clegane-missandei</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -15487,7 +15487,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>maester aemon-davos</t>
+          <t>ramsay bolton-tormund</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -15497,7 +15497,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>roose bolton-salladhor</t>
+          <t>radzal mo eraz-missandei</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -15507,7 +15507,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>arya stark-tyrion lannister</t>
+          <t>orell-margaery tyrell</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -15517,7 +15517,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>gilly-jon snow</t>
+          <t>osha-robb stark</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -15527,7 +15527,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>robb stark-jorah mormont</t>
+          <t>bronn-davos</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -15537,7 +15537,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ramsay bolton-violet</t>
+          <t>pig farmer-gilly</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -15547,7 +15547,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>shireen-jorah mormont</t>
+          <t>roose bolton-salladhor</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -15557,7 +15557,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>theon greyjoy-jon snow</t>
+          <t>tormund-sandor clegane</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -15567,7 +15567,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>tyrion lannister-frey soldier</t>
+          <t>brynden-martyn</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -15577,7 +15577,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>arya stark-selyse</t>
+          <t>sam-gendry baratheon</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -15587,7 +15587,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>osha-jaime lannister</t>
+          <t>frey man-sansa stark</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -15597,7 +15597,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>talisa-edmure</t>
+          <t>robb stark-sandor clegane</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -15607,7 +15607,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>qyburn-tyrion lannister</t>
+          <t>gilly-jon snow</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -15617,7 +15617,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>arya stark-rickard karstark</t>
+          <t>frey man-tyrion lannister</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -15627,7 +15627,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>robb stark-martyn</t>
+          <t>tyrion lannister-frey soldier</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -15637,7 +15637,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>catelyn stark-jojen</t>
+          <t>tormund-daario</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -15647,7 +15647,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sandor clegane-missandei</t>
+          <t>qyburn-tyrion lannister</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -15657,7 +15657,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>tormund-daario</t>
+          <t>shae-anguy</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -15667,7 +15667,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>catelyn stark-mance</t>
+          <t>shae-tywin lannister</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -15677,7 +15677,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>walder frey-daario</t>
+          <t>petyr baelish-ros</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -15687,7 +15687,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sam-jorah mormont</t>
+          <t>brienne-sandor clegane</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -15697,7 +15697,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jaime lannister-joffrey lannister</t>
+          <t>ros-jorah mormont</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -15707,7 +15707,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>melisandre-barristan</t>
+          <t>balon greyjoy-sam</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -15717,7 +15717,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>pig farmer-gilly</t>
+          <t>davos-varys</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -15727,7 +15727,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>tormund-sandor clegane</t>
+          <t>bronn-petyr baelish</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -15737,7 +15737,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>brynden-martyn</t>
+          <t>walder frey-bran stark</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -15747,7 +15747,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>balon greyjoy-sam</t>
+          <t>rast-bran stark</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -15757,7 +15757,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>olenna tyrell-rickard karstark</t>
+          <t>grenn-jeor mormont</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -15767,7 +15767,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>brienne-sandor clegane</t>
+          <t>davos-bran stark</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -15777,7 +15777,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>davos-bran stark</t>
+          <t>grenn-varys</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -15787,7 +15787,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>walder frey-ramsay bolton</t>
+          <t>bronn-mance</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -15797,7 +15797,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>robb stark-sandor clegane</t>
+          <t>theon greyjoy-margaery tyrell</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -15807,7 +15807,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>theon greyjoy-margaery tyrell</t>
+          <t>stannis baratheon-gendry baratheon</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -15817,7 +15817,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>grenn-jeor mormont</t>
+          <t>olenna tyrell-rickard karstark</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -15827,7 +15827,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>rast-bran stark</t>
+          <t>jaime lannister-joffrey lannister</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -15837,7 +15837,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>shae-anguy</t>
+          <t>walder frey-daario</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -15847,7 +15847,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>frey man-tyrion lannister</t>
+          <t>sam-jorah mormont</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -15857,7 +15857,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>walder frey-bran stark</t>
+          <t>walder frey-ramsay bolton</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -15867,7 +15867,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>frey man-sansa stark</t>
+          <t>melisandre-barristan</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -15877,7 +15877,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>bronn-petyr baelish</t>
+          <t>catelyn stark-mance</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -15887,7 +15887,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>orell-margaery tyrell</t>
+          <t>cersei lannister-missandei</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -15897,7 +15897,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>osha-robb stark</t>
+          <t>maester aemon-davos</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -15907,27 +15907,27 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>grenn-varys</t>
+          <t>robb stark-jaime lannister</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sam-gendry baratheon</t>
+          <t>roose bolton-catelyn stark</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>melisandre-septon</t>
+          <t>yara greyjoy-bran stark</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -15937,7 +15937,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>talisa-jorah mormont</t>
+          <t>loras tyrell-petyr baelish</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -15947,7 +15947,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>maester aemon-jon snow</t>
+          <t>stannis baratheon-jaime lannister</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -15957,7 +15957,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>olyvar-margaery tyrell</t>
+          <t>brienne-joffrey lannister</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -15967,7 +15967,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>shae-davos</t>
+          <t>olyvar-margaery tyrell</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -15977,7 +15977,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>roose bolton-tywin lannister</t>
+          <t>balon greyjoy-jojen</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -15997,7 +15997,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>robb stark-margaery tyrell</t>
+          <t>talisa-jorah mormont</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -16007,7 +16007,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>daario-sansa stark</t>
+          <t>robb stark-barristan</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -16017,7 +16017,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ros-daenerys targaryen</t>
+          <t>sansa stark-rickard karstark</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -16027,7 +16027,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>arya stark-brienne</t>
+          <t>orell-grenn</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -16037,7 +16037,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>robb stark-barristan</t>
+          <t>shireen-barristan</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -16047,7 +16047,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jaime lannister-arya stark</t>
+          <t>robb stark-margaery tyrell</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -16057,7 +16057,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>loras tyrell-petyr baelish</t>
+          <t>ros-daenerys targaryen</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -16067,7 +16067,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jeor mormont-bran stark</t>
+          <t>jojen-jon snow</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -16077,7 +16077,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>septon-jorah mormont</t>
+          <t>gendry baratheon-bran stark</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -16087,7 +16087,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>anguy-hot pie</t>
+          <t>margaery tyrell-bronn</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -16097,7 +16097,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>osha-rast</t>
+          <t>bronn-jon snow</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -16107,7 +16107,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>stannis baratheon-jorah mormont</t>
+          <t>bronn-joffrey lannister</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -16117,7 +16117,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>shireen-barristan</t>
+          <t>whore-mance</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -16127,7 +16127,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>roose bolton-bran stark</t>
+          <t>orell-brynden</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -16137,7 +16137,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>joffrey lannister-missandei</t>
+          <t>joffrey lannister-jorah mormont</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -16147,7 +16147,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>whore-mance</t>
+          <t>sansa stark-varys</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -16157,7 +16157,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>robb stark-roose</t>
+          <t>shireen-maester aemon</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -16167,7 +16167,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>robb stark-salladhor</t>
+          <t>podrick-cersei lannister</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -16177,7 +16177,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>shireen-maester aemon</t>
+          <t>davos-tyrion lannister</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -16187,7 +16187,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ramsay bolton-robb stark</t>
+          <t>roose bolton-davos</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -16197,7 +16197,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>podrick-cersei lannister</t>
+          <t>roose bolton-tywin lannister</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -16207,7 +16207,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>theon greyjoy-bran stark</t>
+          <t>robb stark-salladhor</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -16217,7 +16217,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jojen-jon snow</t>
+          <t>maester aemon-jon snow</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -16227,7 +16227,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>tormund-melisandre</t>
+          <t>roose bolton-edmure</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -16237,7 +16237,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>gendry baratheon-varys</t>
+          <t>shae-melisandre</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -16247,7 +16247,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>robb stark-frey guard</t>
+          <t>qyburn-tywin lannister</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -16257,7 +16257,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>talisa-sandor clegane</t>
+          <t>sansa stark-ros</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -16267,7 +16267,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>orell-grenn</t>
+          <t>ramsay bolton-robb stark</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -16277,7 +16277,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>shae-melisandre</t>
+          <t>shae-jorah mormont</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -16287,7 +16287,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>brienne-beric</t>
+          <t>ramsay bolton-jon snow</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -16297,7 +16297,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>anguy-tyrion lannister</t>
+          <t>stannis baratheon-jorah mormont</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -16307,7 +16307,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>roose bolton-edmure</t>
+          <t>tormund-melisandre</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -16317,7 +16317,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sansa stark-daenerys targaryen</t>
+          <t>shae-davos</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -16327,7 +16327,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>davos-tyrion lannister</t>
+          <t>gendry baratheon-varys</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -16337,7 +16337,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>varys-edd</t>
+          <t>joffrey lannister-missandei</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -16347,7 +16347,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>roose bolton-davos</t>
+          <t>brienne-beric</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -16357,7 +16357,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>sansa stark-rickard karstark</t>
+          <t>jaime lannister-davos</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -16367,7 +16367,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>catelyn stark-ros</t>
+          <t>septon-jorah mormont</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -16377,7 +16377,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>jaime lannister-davos</t>
+          <t>jeor mormont-bran stark</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -16387,7 +16387,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ramsay bolton-jon snow</t>
+          <t>stannis baratheon-daario</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -16397,7 +16397,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>arya stark-catelyn stark</t>
+          <t>theon greyjoy-bran stark</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -16407,7 +16407,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>sandor clegane-jorah mormont</t>
+          <t>olenna tyrell-cersei lannister</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -16417,7 +16417,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>gendry baratheon-martyn</t>
+          <t>robb stark-frey guard</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -16427,7 +16427,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>osha-arya stark</t>
+          <t>osha-rast</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -16437,7 +16437,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>bronn-joffrey lannister</t>
+          <t>qyburn-cersei lannister</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -16447,7 +16447,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>olenna tyrell-arya stark</t>
+          <t>talisa-sandor clegane</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -16457,7 +16457,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>gilly-jorah mormont</t>
+          <t>mero-jorah mormont</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -16467,7 +16467,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>qyburn-tywin lannister</t>
+          <t>robb stark-roose</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -16477,7 +16477,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>daario-missandei</t>
+          <t>arya stark-brienne</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -16487,7 +16487,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>olenna tyrell-cersei lannister</t>
+          <t>jaime lannister-arya stark</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -16497,7 +16497,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>yara greyjoy-bran stark</t>
+          <t>anguy-hot pie</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -16507,7 +16507,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>robb stark-jaime lannister</t>
+          <t>arya stark-catelyn stark</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -16517,7 +16517,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>jaime lannister-petyr baelish</t>
+          <t>tormund-bran stark</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -16527,7 +16527,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>qyburn-cersei lannister</t>
+          <t>olenna tyrell-arya stark</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -16537,7 +16537,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>meera-gendry baratheon</t>
+          <t>catelyn stark-martyn</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -16547,7 +16547,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>sansa stark-ros</t>
+          <t>mance-craster</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -16557,7 +16557,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>shae-jorah mormont</t>
+          <t>theon greyjoy-stannis baratheon</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -16567,7 +16567,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>mero-jorah mormont</t>
+          <t>ramsay bolton-melisandre</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -16577,7 +16577,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>roose bolton-catelyn stark</t>
+          <t>stannis baratheon-barristan</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -16587,7 +16587,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>margaery tyrell-bronn</t>
+          <t>catelyn stark-ros</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -16597,7 +16597,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>theon greyjoy-tyrion lannister</t>
+          <t>daario-sansa stark</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -16607,7 +16607,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>tormund-bran stark</t>
+          <t>gilly-jorah mormont</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -16617,7 +16617,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>gendry baratheon-bran stark</t>
+          <t>melisandre-septon</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -16627,7 +16627,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>stannis baratheon-daario</t>
+          <t>theon greyjoy-tyrion lannister</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -16637,7 +16637,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>joffrey lannister-jorah mormont</t>
+          <t>sansa stark-daenerys targaryen</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -16647,7 +16647,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>catelyn stark-martyn</t>
+          <t>daario-missandei</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -16657,7 +16657,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>stannis baratheon-jaime lannister</t>
+          <t>theon greyjoy-joffrey lannister</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -16667,7 +16667,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>walder frey-meera</t>
+          <t>jaime lannister-petyr baelish</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -16677,7 +16677,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>balon greyjoy-jojen</t>
+          <t>edmure-catelyn stark</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -16687,7 +16687,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>osha-ygritte</t>
+          <t>qyburn-steelshanks walton</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -16697,7 +16697,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sansa stark-varys</t>
+          <t>osha-ygritte</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -16707,7 +16707,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>mance-craster</t>
+          <t>meera-gendry baratheon</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -16717,7 +16717,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>brienne-joffrey lannister</t>
+          <t>osha-arya stark</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -16727,7 +16727,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>stannis baratheon-barristan</t>
+          <t>anguy-tyrion lannister</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -16737,7 +16737,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>selyse-beric</t>
+          <t>walder frey-meera</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -16747,7 +16747,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>robb stark-thoros</t>
+          <t>sandor clegane-jorah mormont</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -16757,7 +16757,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>orell-brynden</t>
+          <t>rickard karstark-martyn</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -16767,7 +16767,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>edmure-catelyn stark</t>
+          <t>robb stark-thoros</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -16777,7 +16777,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>theon greyjoy-stannis baratheon</t>
+          <t>varys-edd</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -16787,7 +16787,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>bronn-jon snow</t>
+          <t>selyse-beric</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -16797,7 +16797,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>rickard karstark-martyn</t>
+          <t>roose bolton-bran stark</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -16807,7 +16807,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>qyburn-steelshanks walton</t>
+          <t>gendry baratheon-martyn</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -16817,27 +16817,27 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ramsay bolton-melisandre</t>
+          <t>sam-sandor clegane</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>theon greyjoy-joffrey lannister</t>
+          <t>mero-tyrion lannister</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>cersei lannister-septon</t>
+          <t>sandor clegane-daenerys targaryen</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -16847,7 +16847,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>sansa stark-frey men</t>
+          <t>tyrion lannister-bran stark</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -16857,7 +16857,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>bronn-sansa stark</t>
+          <t>osha-jon snow</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -16867,7 +16867,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>tyrion lannister-frey men</t>
+          <t>cersei lannister-septon</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -16877,7 +16877,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>gilly-daenerys targaryen</t>
+          <t>qyburn-bran stark</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -16887,7 +16887,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>mero-tyrion lannister</t>
+          <t>roose bolton-meera</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -16897,7 +16897,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>frey man-frey men</t>
+          <t>gilly-daenerys targaryen</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -16917,7 +16917,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>daenerys targaryen-prendahl</t>
+          <t>septon-gendry baratheon</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -16927,7 +16927,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>sam-yara greyjoy</t>
+          <t>bronn-sansa stark</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -16937,7 +16937,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>sandor clegane-daenerys targaryen</t>
+          <t>theon greyjoy-meera</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -16957,7 +16957,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>arya stark-jorah mormont</t>
+          <t>jaime lannister-myranda</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -16967,7 +16967,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>sam-sandor clegane</t>
+          <t>talisa-roose</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -16977,7 +16977,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>davos-daario</t>
+          <t>jaime lannister-beric</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -16987,7 +16987,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>qyburn-bran stark</t>
+          <t>sam-yara greyjoy</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -16997,7 +16997,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>osha-jon snow</t>
+          <t>beric-gendry baratheon</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -17007,7 +17007,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>sansa stark-missandei</t>
+          <t>talisa-frey guard</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -17017,7 +17017,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>tyrion lannister-bran stark</t>
+          <t>roose bolton-brienne</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -17027,7 +17027,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>daario-septon</t>
+          <t>arya stark-jorah mormont</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -17037,7 +17037,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>theon greyjoy-meera</t>
+          <t>tyrion lannister-frey men</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -17047,7 +17047,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>margaery tyrell-ygritte</t>
+          <t>sansa stark-frey men</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -17057,7 +17057,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>jaime lannister-myranda</t>
+          <t>davos-daario</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -17067,7 +17067,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>roose bolton-violet</t>
+          <t>daenerys targaryen-prendahl</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -17087,7 +17087,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>roose bolton-brienne</t>
+          <t>septon-bran stark</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -17097,7 +17097,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>talisa-roose</t>
+          <t>margaery tyrell-ygritte</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -17107,7 +17107,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>septon-gendry baratheon</t>
+          <t>roose bolton-violet</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -17117,7 +17117,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>jaime lannister-beric</t>
+          <t>daario-septon</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -17127,7 +17127,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>beric-gendry baratheon</t>
+          <t>frey man-frey men</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -17137,7 +17137,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>talisa-frey guard</t>
+          <t>sansa stark-missandei</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -17147,7 +17147,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>roose bolton-meera</t>
+          <t>ygritte-jeor mormont</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -17157,7 +17157,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>septon-bran stark</t>
+          <t>talisa-sansa stark</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -17167,7 +17167,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ygritte-jeor mormont</t>
+          <t>sandor clegane-varys</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -17177,7 +17177,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>talisa-sansa stark</t>
+          <t>grey worm-missandei</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -17187,7 +17187,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>sandor clegane-varys</t>
+          <t>barristan-grey worm</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -17197,7 +17197,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>grey worm-missandei</t>
+          <t>davos-barristan</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -17207,7 +17207,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>barristan-grey worm</t>
+          <t>davos-brienne</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -17217,7 +17217,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>davos-barristan</t>
+          <t>stannis baratheon-arya stark</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -17227,7 +17227,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>davos-brienne</t>
+          <t>brynden-arya stark</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -17237,7 +17237,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>stannis baratheon-arya stark</t>
+          <t>grenn-tyrion lannister</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -17247,7 +17247,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>brynden-arya stark</t>
+          <t>selyse-thoros</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -17257,7 +17257,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>grenn-tyrion lannister</t>
+          <t>shae-thoros</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -17267,7 +17267,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>selyse-thoros</t>
+          <t>thoros-rickard karstark</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -17277,7 +17277,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>shae-thoros</t>
+          <t>grenn-mance</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -17287,7 +17287,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>thoros-rickard karstark</t>
+          <t>jaime lannister-catelyn stark</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -17297,7 +17297,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>grenn-mance</t>
+          <t>talisa-bran stark</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -17307,7 +17307,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>jaime lannister-catelyn stark</t>
+          <t>arya stark-martyn</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -17317,7 +17317,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>talisa-bran stark</t>
+          <t>osha-jeor mormont</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -17327,7 +17327,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>arya stark-martyn</t>
+          <t>olenna tyrell-gendry baratheon</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -17337,7 +17337,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>osha-jeor mormont</t>
+          <t>melisandre-joffrey lannister</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -17347,7 +17347,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>olenna tyrell-gendry baratheon</t>
+          <t>qyburn-petyr baelish</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -17357,7 +17357,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>melisandre-joffrey lannister</t>
+          <t>jeor mormont-mance</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -17367,7 +17367,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>qyburn-petyr baelish</t>
+          <t>roose bolton-beric</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -17377,7 +17377,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>jeor mormont-mance</t>
+          <t>barristan-missandei</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -17387,7 +17387,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>roose bolton-beric</t>
+          <t>orell-sam</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -17397,7 +17397,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>barristan-missandei</t>
+          <t>ramsay bolton-stannis baratheon</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -17407,7 +17407,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>orell-sam</t>
+          <t>jon snow-bran stark</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -17417,7 +17417,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ramsay bolton-stannis baratheon</t>
+          <t>talisa-barristan</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -17427,7 +17427,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>jon snow-bran stark</t>
+          <t>theon greyjoy-melisandre</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -17437,7 +17437,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>talisa-barristan</t>
+          <t>margaery tyrell-torturer</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -17447,7 +17447,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>theon greyjoy-melisandre</t>
+          <t>petyr baelish-daenerys targaryen</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -17457,7 +17457,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>margaery tyrell-torturer</t>
+          <t>locke-varys</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -17467,7 +17467,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>petyr baelish-daenerys targaryen</t>
+          <t>orell-talisa</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -17477,7 +17477,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>locke-varys</t>
+          <t>jaime lannister-tywin lannister</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -17487,7 +17487,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>orell-talisa</t>
+          <t>orell-catelyn stark</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -17497,7 +17497,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>jaime lannister-tywin lannister</t>
+          <t>brynden-jon snow</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -17507,7 +17507,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>orell-catelyn stark</t>
+          <t>orell-loras tyrell</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -17517,7 +17517,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>brynden-jon snow</t>
+          <t>loras tyrell-olenna tyrell</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -17527,7 +17527,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>orell-loras tyrell</t>
+          <t>whore-jon snow</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -17537,7 +17537,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>loras tyrell-olenna tyrell</t>
+          <t>gilly-edd</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -17547,7 +17547,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>whore-jon snow</t>
+          <t>thoros-jojen</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -17557,7 +17557,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>gilly-edd</t>
+          <t>cersei lannister-meryn trant</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -17567,7 +17567,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>thoros-jojen</t>
+          <t>olenna tyrell-robb stark</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -17577,7 +17577,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>cersei lannister-meryn trant</t>
+          <t>theon greyjoy-locke</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -17587,7 +17587,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>olenna tyrell-robb stark</t>
+          <t>ramsay bolton-black walder</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -17597,7 +17597,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>theon greyjoy-locke</t>
+          <t>theon greyjoy-tormund</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -17607,7 +17607,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ramsay bolton-black walder</t>
+          <t>anguy-ygritte</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -17617,7 +17617,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>theon greyjoy-tormund</t>
+          <t>catelyn stark-gilly</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -17627,7 +17627,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>anguy-ygritte</t>
+          <t>ygritte-jojen</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -17637,7 +17637,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>catelyn stark-gilly</t>
+          <t>davos-robb stark</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -17647,7 +17647,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ygritte-jojen</t>
+          <t>osha-gilly</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -17657,7 +17657,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>davos-robb stark</t>
+          <t>theon greyjoy-jojen</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -17667,7 +17667,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>osha-gilly</t>
+          <t>ramsay bolton-bran stark</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -17677,7 +17677,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>theon greyjoy-jojen</t>
+          <t>talisa-tyrion lannister</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -17687,7 +17687,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ramsay bolton-bran stark</t>
+          <t>varys-bran stark</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -17697,27 +17697,27 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>talisa-tyrion lannister</t>
+          <t>sam-mance</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>varys-bran stark</t>
+          <t>petyr baelish-missandei</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>sam-mance</t>
+          <t>robb stark-bran stark</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -17727,7 +17727,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>petyr baelish-missandei</t>
+          <t>mance-martyn</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -17737,7 +17737,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>robb stark-bran stark</t>
+          <t>sam-pig farmer</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -17747,7 +17747,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>mance-martyn</t>
+          <t>ramsay bolton-craster</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -17757,7 +17757,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>sam-pig farmer</t>
+          <t>meera-tyrion lannister</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -17767,7 +17767,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ramsay bolton-craster</t>
+          <t>tywin lannister-bran stark</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -17777,7 +17777,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>meera-tyrion lannister</t>
+          <t>osha-sandor clegane</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -17787,7 +17787,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>tywin lannister-bran stark</t>
+          <t>meera-arya stark</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -17797,7 +17797,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>osha-sandor clegane</t>
+          <t>thoros-tyrion lannister</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -17807,7 +17807,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>meera-arya stark</t>
+          <t>joffrey lannister-torturer</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -17817,7 +17817,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>thoros-tyrion lannister</t>
+          <t>catelyn stark-hot pie</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -17827,7 +17827,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>joffrey lannister-torturer</t>
+          <t>jojen-septon</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -17837,7 +17837,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>catelyn stark-hot pie</t>
+          <t>ramsay bolton-jojen</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -17847,7 +17847,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>jojen-septon</t>
+          <t>thoros-bran stark</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -17857,7 +17857,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ramsay bolton-jojen</t>
+          <t>blackfish-daenerys targaryen</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -17867,7 +17867,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>thoros-bran stark</t>
+          <t>edmure-tywin lannister</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -17877,7 +17877,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>blackfish-daenerys targaryen</t>
+          <t>jaime lannister-tyrion lannister</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -17887,7 +17887,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>edmure-tywin lannister</t>
+          <t>locke-tyrion lannister</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -17897,7 +17897,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>jaime lannister-tyrion lannister</t>
+          <t>talisa-blackfish</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -17907,7 +17907,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>locke-tyrion lannister</t>
+          <t>tyrion lannister-edd</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -17917,7 +17917,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>talisa-blackfish</t>
+          <t>margaery tyrell-missandei</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -17927,7 +17927,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>tyrion lannister-edd</t>
+          <t>talisa-margaery tyrell</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -17937,7 +17937,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>margaery tyrell-missandei</t>
+          <t>stannis baratheon-brienne</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -17947,7 +17947,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>talisa-margaery tyrell</t>
+          <t>talisa-tywin lannister</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -17957,7 +17957,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>stannis baratheon-brienne</t>
+          <t>stannis baratheon-beric</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -17967,7 +17967,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>talisa-tywin lannister</t>
+          <t>jaime lannister-bran stark</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -17977,7 +17977,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>stannis baratheon-beric</t>
+          <t>edmure-rickard karstark</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -17987,7 +17987,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>jaime lannister-bran stark</t>
+          <t>theon greyjoy-gilly</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -17997,7 +17997,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>edmure-rickard karstark</t>
+          <t>robb stark-gendry baratheon</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -18007,7 +18007,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>theon greyjoy-gilly</t>
+          <t>sam-jon snow</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -18017,7 +18017,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>robb stark-gendry baratheon</t>
+          <t>brynden-black walder</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -18027,7 +18027,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>sam-jon snow</t>
+          <t>arya stark-daenerys targaryen</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -18037,7 +18037,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>brynden-black walder</t>
+          <t>beric-locke</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -18047,7 +18047,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>arya stark-daenerys targaryen</t>
+          <t>roose bolton-myranda</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -18057,7 +18057,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>beric-locke</t>
+          <t>shae-loras tyrell</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -18067,7 +18067,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>roose bolton-myranda</t>
+          <t>talisa-ygritte</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -18077,7 +18077,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>shae-loras tyrell</t>
+          <t>beric-kraznys</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -18087,7 +18087,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>talisa-ygritte</t>
+          <t>mero-davos</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -18097,7 +18097,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>beric-kraznys</t>
+          <t>robb stark-varys</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -18107,7 +18107,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>mero-davos</t>
+          <t>olenna tyrell-jaime lannister</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -18117,7 +18117,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>robb stark-varys</t>
+          <t>ros-sandor clegane</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -18127,7 +18127,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>olenna tyrell-jaime lannister</t>
+          <t>orell-arya stark</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -18137,7 +18137,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ros-sandor clegane</t>
+          <t>brienne-catelyn stark</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -18147,7 +18147,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>orell-arya stark</t>
+          <t>ros-bran stark</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -18157,7 +18157,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>brienne-catelyn stark</t>
+          <t>daenerys targaryen-tywin lannister</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -18167,7 +18167,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ros-bran stark</t>
+          <t>orell-robb stark</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -18177,27 +18177,27 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>daenerys targaryen-tywin lannister</t>
+          <t>salladhor-rickard karstark</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>orell-robb stark</t>
+          <t>shireen-sam</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>salladhor-rickard karstark</t>
+          <t>bronn-salladhor</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -18207,7 +18207,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>shireen-sam</t>
+          <t>robb stark-tyrion lannister</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -18217,7 +18217,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>bronn-salladhor</t>
+          <t>jon snow-frey soldier</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -18227,7 +18227,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>robb stark-tyrion lannister</t>
+          <t>davos-joffrey lannister</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -18237,7 +18237,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>jon snow-frey soldier</t>
+          <t>shae-margaery tyrell</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -18247,7 +18247,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>davos-joffrey lannister</t>
+          <t>cersei lannister-varys</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -18257,7 +18257,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>shae-margaery tyrell</t>
+          <t>osha-gendry baratheon</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -18267,7 +18267,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>cersei lannister-varys</t>
+          <t>meera-tywin lannister</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -18277,7 +18277,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>osha-gendry baratheon</t>
+          <t>rast-jojen</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -18287,7 +18287,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>meera-tywin lannister</t>
+          <t>jorah mormont-kraznys mo nakloz</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -18297,7 +18297,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>rast-jojen</t>
+          <t>meera-davos</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -18307,7 +18307,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>jorah mormont-kraznys mo nakloz</t>
+          <t>robb stark-brienne</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -18317,7 +18317,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>meera-davos</t>
+          <t>cersei lannister-brienne</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -18327,7 +18327,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>robb stark-brienne</t>
+          <t>ramsay bolton-meera</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -18337,7 +18337,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>cersei lannister-brienne</t>
+          <t>ygritte-sansa stark</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -18347,7 +18347,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ramsay bolton-meera</t>
+          <t>tormund-craster</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -18357,7 +18357,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ygritte-sansa stark</t>
+          <t>cersei lannister-gendry baratheon</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -18367,7 +18367,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>tormund-craster</t>
+          <t>jon snow-martyn</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -18377,7 +18377,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>cersei lannister-gendry baratheon</t>
+          <t>mero-sansa stark</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -18387,7 +18387,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>jon snow-martyn</t>
+          <t>sandor clegane-kraznys</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -18397,7 +18397,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>mero-sansa stark</t>
+          <t>cersei lannister-melisandre</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -18407,7 +18407,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>sandor clegane-kraznys</t>
+          <t>grand maester pycelle-tywin lannister</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -18417,7 +18417,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>cersei lannister-melisandre</t>
+          <t>grenn-gilly</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -18427,7 +18427,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>grand maester pycelle-tywin lannister</t>
+          <t>steelshanks walton-locke</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -18437,7 +18437,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>grenn-gilly</t>
+          <t>jorah mormont-kraznys</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -18447,7 +18447,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>steelshanks walton-locke</t>
+          <t>gendry baratheon-rickard karstark</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -18457,7 +18457,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>jorah mormont-kraznys</t>
+          <t>stannis baratheon-thoros</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -18467,7 +18467,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>gendry baratheon-rickard karstark</t>
+          <t>loras tyrell-robb stark</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -18477,7 +18477,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>stannis baratheon-thoros</t>
+          <t>qyburn-violet</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -18487,7 +18487,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>loras tyrell-robb stark</t>
+          <t>ygritte-bran stark</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -18497,7 +18497,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>qyburn-violet</t>
+          <t>robb stark-ygritte</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -18507,7 +18507,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ygritte-bran stark</t>
+          <t>brienne-tyrion lannister</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -18517,7 +18517,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>robb stark-ygritte</t>
+          <t>brynden-hot pie</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -18527,7 +18527,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>brienne-tyrion lannister</t>
+          <t>grand maester pycelle-tyrion lannister</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -18537,7 +18537,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>brynden-hot pie</t>
+          <t>catelyn stark-daenerys targaryen</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -18547,7 +18547,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>grand maester pycelle-tyrion lannister</t>
+          <t>catelyn stark-gendry baratheon</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -18557,7 +18557,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>catelyn stark-daenerys targaryen</t>
+          <t>joffrey lannister-daenerys targaryen</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -18567,7 +18567,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>catelyn stark-gendry baratheon</t>
+          <t>daenerys targaryen-bran stark</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -18577,7 +18577,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>joffrey lannister-daenerys targaryen</t>
+          <t>tormund-jorah mormont</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -18587,27 +18587,27 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>daenerys targaryen-bran stark</t>
+          <t>melisandre-margaery tyrell</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>tormund-jorah mormont</t>
+          <t>arya stark-missandei</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>melisandre-margaery tyrell</t>
+          <t>thoros-jon snow</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -18617,7 +18617,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>arya stark-missandei</t>
+          <t>beric-ygritte</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -18627,7 +18627,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>thoros-jon snow</t>
+          <t>jaime lannister-edmure</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -18637,7 +18637,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>beric-ygritte</t>
+          <t>roose bolton-arya stark</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -18647,7 +18647,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>jaime lannister-edmure</t>
+          <t>lothar-brynden</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -18657,7 +18657,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>roose bolton-arya stark</t>
+          <t>barristan-sandor clegane</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -18667,7 +18667,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>lothar-brynden</t>
+          <t>anguy-jon snow</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -18677,7 +18677,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>barristan-sandor clegane</t>
+          <t>podrick-mance</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -18687,7 +18687,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>anguy-jon snow</t>
+          <t>shae-radzal mo eraz</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -18697,7 +18697,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>podrick-mance</t>
+          <t>qyburn-myranda</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -18707,7 +18707,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>shae-radzal mo eraz</t>
+          <t>davos-gilly</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -18717,7 +18717,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>qyburn-myranda</t>
+          <t>olyvar-robb stark</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -18727,7 +18727,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>davos-gilly</t>
+          <t>roose bolton-osha</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -18737,7 +18737,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>olyvar-robb stark</t>
+          <t>davos-rickard karstark</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -18747,7 +18747,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>roose bolton-osha</t>
+          <t>salladhor-tyrion lannister</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -18757,7 +18757,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>davos-rickard karstark</t>
+          <t>beric-varys</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -18767,7 +18767,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>salladhor-tyrion lannister</t>
+          <t>grand maester pycelle-petyr baelish</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -18777,7 +18777,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>beric-varys</t>
+          <t>meera-yara greyjoy</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -18787,7 +18787,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>grand maester pycelle-petyr baelish</t>
+          <t>tyrion lannister-prendahl</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -18797,7 +18797,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>meera-yara greyjoy</t>
+          <t>osha-blackfish</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -18807,7 +18807,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>tyrion lannister-prendahl</t>
+          <t>brienne-tywin lannister</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -18817,7 +18817,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>osha-blackfish</t>
+          <t>sandor clegane-hot pie</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -18827,7 +18827,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>brienne-tywin lannister</t>
+          <t>ramsay bolton-torturer</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -18837,7 +18837,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>sandor clegane-hot pie</t>
+          <t>catelyn stark-sandor clegane</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -18847,7 +18847,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ramsay bolton-torturer</t>
+          <t>brynden-gendry baratheon</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -18857,7 +18857,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>catelyn stark-sandor clegane</t>
+          <t>meera-hodor</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -18867,7 +18867,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>brynden-gendry baratheon</t>
+          <t>hodor-jojen</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -18877,7 +18877,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>meera-hodor</t>
+          <t>jon snow-rickon stark</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -18887,7 +18887,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>hodor-jojen</t>
+          <t>sandor clegane-rickon stark</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -18897,7 +18897,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>jon snow-rickon stark</t>
+          <t>jojen-tyrion lannister</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -18907,7 +18907,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>sandor clegane-rickon stark</t>
+          <t>tormund-jeor mormont</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -18917,7 +18917,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>jojen-tyrion lannister</t>
+          <t>jeor mormont-jojen</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -18927,7 +18927,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>tormund-jeor mormont</t>
+          <t>arya stark-gilly</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -18937,7 +18937,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>jeor mormont-jojen</t>
+          <t>melisandre-jorah mormont</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -18947,7 +18947,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>arya stark-gilly</t>
+          <t>daario-barristan</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -18957,7 +18957,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>melisandre-jorah mormont</t>
+          <t>ramsay bolton-jaime lannister</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -18967,7 +18967,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>daario-barristan</t>
+          <t>daario-gilly</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -18977,7 +18977,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ramsay bolton-jaime lannister</t>
+          <t>jaime lannister-varys</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -18987,7 +18987,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>daario-gilly</t>
+          <t>ramsay bolton-gilly</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -18997,7 +18997,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>jaime lannister-varys</t>
+          <t>theon greyjoy-sam</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -19007,7 +19007,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ramsay bolton-gilly</t>
+          <t>sam-catelyn stark</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -19017,7 +19017,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>theon greyjoy-sam</t>
+          <t>balon greyjoy-bran stark</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -19027,30 +19027,10 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>sam-catelyn stark</t>
+          <t>melisandre-sam</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>balon greyjoy-bran stark</t>
-        </is>
-      </c>
-      <c r="B616" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>melisandre-sam</t>
-        </is>
-      </c>
-      <c r="B617" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29507,7 +29487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B581"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29700,7 +29680,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lady crane-arya stark</t>
+          <t>tormund-jon snow</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -29710,7 +29690,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tormund-jon snow</t>
+          <t>lady crane-arya stark</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -29760,7 +29740,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tormund-davos</t>
+          <t>petyr baelish-sansa stark</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -29770,7 +29750,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>petyr baelish-sansa stark</t>
+          <t>tormund-davos</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -29780,7 +29760,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jaime lannister-sparrow</t>
+          <t>melisandre-jon snow</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -29790,7 +29770,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>melisandre-jon snow</t>
+          <t>sandor-ray</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -29800,7 +29780,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sandor-ray</t>
+          <t>jaime lannister-sparrow</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -29840,7 +29820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>waif-jaqen hghar</t>
+          <t>ramsay bolton-smalljon</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -29850,7 +29830,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ramsay bolton-smalljon</t>
+          <t>waif-jaqen hghar</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -29900,7 +29880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brynden-brienne</t>
+          <t>sandor-thoros</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -29910,7 +29890,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sandor-thoros</t>
+          <t>brynden-brienne</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -29920,7 +29900,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>walder frey-jaime lannister</t>
+          <t>brynden-jaime lannister</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -29930,7 +29910,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cersei lannister-kevan</t>
+          <t>theon greyjoy-sansa stark</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -29940,7 +29920,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>brynden-jaime lannister</t>
+          <t>cersei lannister-kevan</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -29950,7 +29930,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>theon greyjoy-sansa stark</t>
+          <t>walder frey-jaime lannister</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -29960,7 +29940,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lady crane-izembaro</t>
+          <t>brienne-sansa stark</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -29970,7 +29950,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>daenerys targaryen-yara greyjoy</t>
+          <t>lady crane-izembaro</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -29980,7 +29960,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>brienne-sansa stark</t>
+          <t>daenerys targaryen-yara greyjoy</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -30020,7 +30000,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lyanna-jon snow</t>
+          <t>davos-alliser thorne</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -30050,7 +30030,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>davos-alliser thorne</t>
+          <t>lyanna-jon snow</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -30060,7 +30040,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>theon greyjoy-daenerys targaryen</t>
+          <t>ramsay bolton-roose</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -30070,7 +30050,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ramsay bolton-roose</t>
+          <t>benjen stark-bran stark</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -30080,7 +30060,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>benjen stark-bran stark</t>
+          <t>theon greyjoy-daenerys targaryen</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -30110,7 +30090,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eddard stark-bran stark</t>
+          <t>razdal-tyrion lannister</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -30120,7 +30100,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lady crane-bobono</t>
+          <t>eddard stark-bran stark</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -30130,7 +30110,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>razdal-tyrion lannister</t>
+          <t>lady crane-bobono</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -30160,7 +30140,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>euron greyjoy-yara greyjoy</t>
+          <t>ramsay bolton-jon snow</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -30170,7 +30150,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ramsay bolton-jon snow</t>
+          <t>euron greyjoy-yara greyjoy</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -30180,7 +30160,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jaime lannister-black walder</t>
+          <t>robin arryn-petyr baelish</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -30190,7 +30170,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>izembaro-bobono</t>
+          <t>jaime lannister-black walder</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -30200,7 +30180,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>robin arryn-petyr baelish</t>
+          <t>izembaro-bobono</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -30220,7 +30200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>melessa-gilly</t>
+          <t>daenerys targaryen-lhazareen woman</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -30230,7 +30210,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>daenerys targaryen-lhazareen woman</t>
+          <t>camello-lady crane</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -30250,7 +30230,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>camello-lady crane</t>
+          <t>melessa-gilly</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -30260,7 +30240,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kinvara-tyrion lannister</t>
+          <t>ramsay bolton-davos</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -30290,7 +30270,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ramsay bolton-davos</t>
+          <t>kinvara-tyrion lannister</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -30300,7 +30280,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sam-randyll</t>
+          <t>brynden-guard captain</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -30310,7 +30290,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>tormund-sansa stark</t>
+          <t>sam-randyll</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -30320,7 +30300,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ramsay bolton-lord karstark</t>
+          <t>tormund-sansa stark</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -30330,7 +30310,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>brynden-guard captain</t>
+          <t>ramsay bolton-lord karstark</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -30340,7 +30320,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>khal moro-khal</t>
+          <t>cersei lannister-lady olenna</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -30360,7 +30340,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cersei lannister-lady olenna</t>
+          <t>davos-edd</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -30370,7 +30350,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>davos-edd</t>
+          <t>khal moro-khal</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -30380,7 +30360,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>melessa-randyll</t>
+          <t>edmure-guard captain</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -30390,7 +30370,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>edmure-guard captain</t>
+          <t>melessa-randyll</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -30400,7 +30380,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>lyanna-davos</t>
+          <t>bianca-bobono</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -30420,7 +30400,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>grey worm-varys</t>
+          <t>lord karstark-roose</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -30430,7 +30410,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lord karstark-roose</t>
+          <t>ramsay bolton-lady walda</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -30440,7 +30420,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ramsay bolton-lady walda</t>
+          <t>lyanna-eddard stark</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -30450,7 +30430,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>clarenzo-bobono</t>
+          <t>grey worm-varys</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -30460,7 +30440,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bianca-bobono</t>
+          <t>gilly-randyll</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -30470,7 +30450,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>euron greyjoy-aeron</t>
+          <t>clarenzo-bobono</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -30480,7 +30460,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>lyanna-eddard stark</t>
+          <t>euron greyjoy-aeron</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -30490,7 +30470,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gilly-randyll</t>
+          <t>lyanna-davos</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -30510,7 +30490,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>davos-nights watchman</t>
+          <t>balon greyjoy-euron greyjoy</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -30520,7 +30500,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>cersei lannister-margaery tyrell</t>
+          <t>daario-tyrion lannister</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -30530,7 +30510,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>balon greyjoy-euron greyjoy</t>
+          <t>robett-jon snow</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -30550,7 +30530,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>robett-jon snow</t>
+          <t>davos-nights watchman</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -30560,7 +30540,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>daario-tyrion lannister</t>
+          <t>camello-bianca</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -30570,7 +30550,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>camello-bianca</t>
+          <t>cersei lannister-margaery tyrell</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -30580,7 +30560,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>brynden-edmure</t>
+          <t>leader-lhazareen woman</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -30590,7 +30570,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>qyburn-lancel lannister</t>
+          <t>brynden-edmure</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -30610,7 +30590,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>qyburn-jaime lannister</t>
+          <t>sparrow-lancel lannister</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -30620,7 +30600,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>olenna tyrell-cersei lannister</t>
+          <t>qyburn-lancel lannister</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -30630,7 +30610,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>davos-brienne</t>
+          <t>olenna tyrell-cersei lannister</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -30640,7 +30620,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>theon greyjoy-euron greyjoy</t>
+          <t>walder frey-cersei lannister</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -30650,7 +30630,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sparrow-lancel lannister</t>
+          <t>qyburn-jaime lannister</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -30660,7 +30640,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>walder frey-cersei lannister</t>
+          <t>theon greyjoy-euron greyjoy</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -30670,7 +30650,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>leader-lhazareen woman</t>
+          <t>loras tyrell-margaery tyrell</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -30680,7 +30660,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>loras tyrell-margaery tyrell</t>
+          <t>davos-brienne</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -30690,7 +30670,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>walder frey-bronn</t>
+          <t>yara greyjoy-aeron</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -30710,7 +30690,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>izembaro-arya stark</t>
+          <t>ray-lem</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -30720,7 +30700,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>camello-izembaro</t>
+          <t>robin arryn-lord royce</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -30730,7 +30710,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ramsay bolton-maester wolkan</t>
+          <t>walder frey-black walder</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -30750,7 +30730,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>yara greyjoy-aeron</t>
+          <t>ramsay bolton-maester wolkan</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -30760,7 +30740,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ray-lem</t>
+          <t>izembaro-arya stark</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -30770,7 +30750,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>robin arryn-lord royce</t>
+          <t>walder frey-bronn</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -30780,7 +30760,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>walder frey-black walder</t>
+          <t>loras tyrell-sparrow</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -30790,7 +30770,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>loras tyrell-sparrow</t>
+          <t>lady crane-bianca</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -30800,7 +30780,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lady crane-bianca</t>
+          <t>camello-izembaro</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -30810,7 +30790,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tormund-edd</t>
+          <t>daenerys targaryen-grey worm</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -30820,7 +30800,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>maester-sam</t>
+          <t>tormund-edd</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -30830,7 +30810,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>doran-ellaria</t>
+          <t>tyrion lannister-yezzan</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -30840,7 +30820,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>tyrion lannister-yezzan</t>
+          <t>doran-ellaria</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -30850,7 +30830,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>daenerys targaryen-grey worm</t>
+          <t>jaime lannister-kevan</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -30860,7 +30840,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jaime lannister-kevan</t>
+          <t>maester-sam</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -30870,7 +30850,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dickon-sam</t>
+          <t>jaime lannister-captain</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -30880,7 +30860,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jaime lannister-captain</t>
+          <t>eddard stark-arthur</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -30890,7 +30870,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>nights watchman-alliser thorne</t>
+          <t>cersei lannister-tyrion lannister</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -30900,7 +30880,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ramsay bolton-yara greyjoy</t>
+          <t>daenerys targaryen-varys</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -30910,7 +30890,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>alliser thorne-edd</t>
+          <t>ramsay bolton-yara greyjoy</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -30920,7 +30900,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>benjen stark-meera</t>
+          <t>nights watchman-alliser thorne</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -30940,7 +30920,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>margaery tyrell-septa unella</t>
+          <t>benjen stark-meera</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -30950,7 +30930,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>daenerys targaryen-varys</t>
+          <t>alliser thorne-edd</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -30960,7 +30940,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cersei lannister-tyrion lannister</t>
+          <t>benjen stark-eddard stark</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -30970,7 +30950,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>benjen stark-eddard stark</t>
+          <t>margaery tyrell-septa unella</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -30980,7 +30960,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lothar-bronn</t>
+          <t>dickon-sam</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -30990,7 +30970,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>eddard stark-arthur</t>
+          <t>lothar-bronn</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -31000,7 +30980,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>arthur-bran stark</t>
+          <t>izembaro-jaqen hghar</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -31010,7 +30990,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>margaery tyrell-lancel lannister</t>
+          <t>khal moro-bloodrider</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -31020,7 +31000,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>leader-daenerys targaryen</t>
+          <t>bronn-brienne</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -31030,7 +31010,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>bronn-brienne</t>
+          <t>leader-daenerys targaryen</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -31040,7 +31020,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>walder frey-handmaiden</t>
+          <t>margaery tyrell-lancel lannister</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -31060,7 +31040,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>izembaro-jaqen hghar</t>
+          <t>arthur-bran stark</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -31070,7 +31050,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>varys-missandei</t>
+          <t>cersei lannister-sparrow</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -31080,7 +31060,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>cersei lannister-kings soldier</t>
+          <t>cersei lannister-septa unella</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -31090,7 +31070,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>cersei lannister-sparrow</t>
+          <t>varys-missandei</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -31100,7 +31080,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>khal moro-bloodrider</t>
+          <t>cersei lannister-kings soldier</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -31110,7 +31090,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>cersei lannister-septa unella</t>
+          <t>walder frey-handmaiden</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -31120,7 +31100,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>lyanna stark-bran stark</t>
+          <t>walder frey-lothar</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -31130,7 +31110,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vala-varys</t>
+          <t>cersei lannister-brienne</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -31140,7 +31120,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cersei lannister-brienne</t>
+          <t>lyanna stark-bran stark</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -31150,7 +31130,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>walder frey-lothar</t>
+          <t>razdal-daenerys targaryen</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -31160,7 +31140,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>razdal-daenerys targaryen</t>
+          <t>vala-varys</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -31170,7 +31150,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>daario-dothraki</t>
+          <t>olenna tyrell-ellaria</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -31180,7 +31160,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>clarenzo-lady crane</t>
+          <t>ramsay bolton-jaqen hghar</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -31190,7 +31170,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>eddard stark-lyanna stark</t>
+          <t>qyburn-arthur</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -31200,7 +31180,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>qyburn-arthur</t>
+          <t>eddard stark-lyanna stark</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -31210,7 +31190,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>olenna tyrell-ellaria</t>
+          <t>daario-dothraki</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -31220,7 +31200,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ramsay bolton-jaqen hghar</t>
+          <t>kinvara-varys</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -31230,7 +31210,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>kinvara-varys</t>
+          <t>clarenzo-lady crane</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -31250,7 +31230,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ramsay bolton-theon greyjoy</t>
+          <t>jaime lannister-jon snow</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -31260,7 +31240,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>qyburn-sparrow</t>
+          <t>tommen lannister-tyrion lannister</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -31270,7 +31250,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>daenerys targaryen-dothraki matron</t>
+          <t>qyburn-sparrow</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -31280,7 +31260,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>benjen stark-lyanna stark</t>
+          <t>jorah mormont-dothraki</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -31290,7 +31270,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jorah mormont-dothraki</t>
+          <t>daenerys targaryen-dothraki matron</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -31300,7 +31280,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>jaime lannister-jon snow</t>
+          <t>sandor-gatins</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -31310,7 +31290,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>tommen lannister-tyrion lannister</t>
+          <t>benjen stark-lyanna stark</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -31320,7 +31300,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sandor-gatins</t>
+          <t>ramsay bolton-theon greyjoy</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -31340,7 +31320,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>meera-rickard</t>
+          <t>kevan-lady olenna</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -31350,7 +31330,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>bolton officer-sansa stark</t>
+          <t>jaime lannister-lady olenna</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -31360,7 +31340,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>brynden-jon snow</t>
+          <t>alliser throne-jon snow</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -31370,7 +31350,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jaime lannister-lady olenna</t>
+          <t>razdal-grey worm</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -31380,7 +31360,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kevan-lady olenna</t>
+          <t>jorah mormont-tyrion lannister</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -31390,7 +31370,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>tormund-cersei lannister</t>
+          <t>sansa stark-edd</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -31400,7 +31380,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>izembaro-bianca</t>
+          <t>bolton officer-sansa stark</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -31410,7 +31390,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>grand maester pycelle-lancel lannister</t>
+          <t>izembaro-bianca</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -31420,7 +31400,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>qyburn-grand maester pycelle</t>
+          <t>brynden-jon snow</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -31430,7 +31410,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>qyburn-little bird</t>
+          <t>bronn-black walder</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -31440,7 +31420,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>bronn-black walder</t>
+          <t>grand maester pycelle-lancel lannister</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -31450,7 +31430,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>jorah mormont-tyrion lannister</t>
+          <t>qyburn-grand maester pycelle</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -31460,7 +31440,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>razdal-grey worm</t>
+          <t>nan-bran stark</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -31470,7 +31450,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>alliser throne-jon snow</t>
+          <t>tormund-cersei lannister</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -31480,7 +31460,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sansa stark-edd</t>
+          <t>qyburn-little bird</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -31490,7 +31470,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>olenna tyrell-obara</t>
+          <t>meera-rickard</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -31500,7 +31480,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>nan-bran stark</t>
+          <t>olenna tyrell-obara</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -31510,7 +31490,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rider-bran stark</t>
+          <t>meera-edd</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -31520,7 +31500,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>leaf-bran stark</t>
+          <t>meera-leaf</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -31530,7 +31510,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>obara-nymeria</t>
+          <t>varys-red priest</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -31540,7 +31520,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>theon greyjoy-roose</t>
+          <t>leaf-bran stark</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -31550,7 +31530,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>meera-rider</t>
+          <t>lyanna-vale knight</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -31560,7 +31540,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>olenna tyrell-jon snow</t>
+          <t>waif-petyr baelish</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -31570,7 +31550,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>alliser throne-edd</t>
+          <t>kinvara-bran stark</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -31580,7 +31560,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>eddard stark-threeeyed raven</t>
+          <t>davos-bran stark</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -31590,7 +31570,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>lyanna-jaime lannister</t>
+          <t>meera-child of forest</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -31600,7 +31580,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>davos-bran stark</t>
+          <t>meera-rider</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -31610,7 +31590,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>meera-hodor</t>
+          <t>olenna tyrell-jon snow</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -31620,7 +31600,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>meera-child of forest</t>
+          <t>obara-nymeria</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -31630,7 +31610,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>meera-leaf</t>
+          <t>sandor-tyrion lannister</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -31640,7 +31620,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>kinvara-bran stark</t>
+          <t>alliser throne-edd</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -31650,7 +31630,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>meera-edd</t>
+          <t>eddard stark-threeeyed raven</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -31660,7 +31640,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sandor-tyrion lannister</t>
+          <t>grand maester pycelle-sparrow</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -31670,7 +31650,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>waif-petyr baelish</t>
+          <t>podrick-brienne</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -31680,7 +31660,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>podrick-brienne</t>
+          <t>tyrion lannister-red priest</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -31690,7 +31670,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>lyanna-vale knight</t>
+          <t>rider-bran stark</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -31700,7 +31680,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>tyrion lannister-red priest</t>
+          <t>meera-hodor</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -31710,7 +31690,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>varys-red priest</t>
+          <t>obara-ellaria</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -31720,7 +31700,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>grand maester pycelle-sparrow</t>
+          <t>theon greyjoy-roose</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -31730,7 +31710,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>obara-ellaria</t>
+          <t>lyanna-jaime lannister</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -31740,7 +31720,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jorah mormont-grey worm</t>
+          <t>theon greyjoy-brienne</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -31750,7 +31730,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>dim dalba-tormund</t>
+          <t>cersei lannister-bronn</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -31760,7 +31740,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>daenerys targaryen-khal</t>
+          <t>nymeria-tyrion lannister</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -31770,7 +31750,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>trystane-obara</t>
+          <t>sparrow-daenerys targaryen</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -31780,7 +31760,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>storyteller-cersei lannister</t>
+          <t>podrick-cersei lannister</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -31790,7 +31770,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>margaery tyrell-grand maester pycelle</t>
+          <t>daenerys targaryen-khal</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -31800,7 +31780,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>cersei lannister-bronn</t>
+          <t>jorah mormont-grey worm</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -31810,7 +31790,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>storyteller-tormund</t>
+          <t>daenerys targaryen-bloodrider</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -31820,7 +31800,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jaime lannister-missandei</t>
+          <t>clarenzo-sam</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -31840,7 +31820,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>daenerys targaryen-bloodrider</t>
+          <t>meera-threeeyed raven</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -31850,7 +31830,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>sparrow-daenerys targaryen</t>
+          <t>robett-theon greyjoy</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -31860,7 +31840,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>podrick-cersei lannister</t>
+          <t>jaime lannister-missandei</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -31870,7 +31850,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>clarenzo-sam</t>
+          <t>trystane-obara</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -31880,7 +31860,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>arthur-little bird</t>
+          <t>maester-jon snow</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -31890,7 +31870,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>theon greyjoy-brienne</t>
+          <t>cersei lannister-meera</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -31900,7 +31880,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>walder frey-daenerys targaryen</t>
+          <t>qyburn-sam</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -31910,7 +31890,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>meera-threeeyed raven</t>
+          <t>walder frey-daenerys targaryen</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -31920,7 +31900,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>maester-jon snow</t>
+          <t>dothraki matron-varys</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -31930,7 +31910,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>jorah mormont-bloodrider</t>
+          <t>davos-smalljon</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -31940,7 +31920,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>dothraki matron-varys</t>
+          <t>arthur-little bird</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -31950,7 +31930,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>qyburn-sam</t>
+          <t>cersei lannister-varys</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -31960,7 +31940,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>dim dalba-margaery tyrell</t>
+          <t>margaery tyrell-grand maester pycelle</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -31970,7 +31950,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>waif-alliser thorne</t>
+          <t>waif-tyrion lannister</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -31980,7 +31960,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cersei lannister-meera</t>
+          <t>benjen stark-daario</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -31990,7 +31970,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>davos-smalljon</t>
+          <t>waif-sparrow</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -32000,7 +31980,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>waif-sparrow</t>
+          <t>waif-alliser thorne</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -32010,7 +31990,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>benjen stark-daario</t>
+          <t>dim dalba-margaery tyrell</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -32020,7 +32000,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>robett-theon greyjoy</t>
+          <t>dim dalba-tormund</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -32030,7 +32010,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>petyr baelish-grey worm</t>
+          <t>jorah mormont-varys</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -32040,7 +32020,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>nymeria-tyrion lannister</t>
+          <t>jorah mormont-bloodrider</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -32050,7 +32030,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>cersei lannister-varys</t>
+          <t>petyr baelish-grey worm</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -32060,7 +32040,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>jorah mormont-varys</t>
+          <t>euron greyjoy-daenerys targaryen</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -32070,27 +32050,27 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>euron greyjoy-daenerys targaryen</t>
+          <t>jaqen hghar-petyr baelish</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>waif-tyrion lannister</t>
+          <t>waif-davos</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>walder frey-tommen lannister</t>
+          <t>euron greyjoy-jorah mormont</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -32100,7 +32080,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>jaqen hghar-petyr baelish</t>
+          <t>clarenzo-bianca</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -32110,7 +32090,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>child of forest-davos</t>
+          <t>brienne-jon snow</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -32120,7 +32100,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>daario-bloodrider</t>
+          <t>jaqen hghar-mace</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -32140,7 +32120,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>jaqen hghar-mace</t>
+          <t>captain-mace</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -32150,7 +32130,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>clarenzo-gilly</t>
+          <t>tommen lannister-sam</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -32160,7 +32140,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>captain-mace</t>
+          <t>walder frey-tommen lannister</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -32170,7 +32150,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>tommen lannister-sam</t>
+          <t>trystane-nymeria</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -32180,7 +32160,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>lady crane-jaqen hghar</t>
+          <t>cersei lannister-rider</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -32190,7 +32170,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>child of forest-bran stark</t>
+          <t>daario-bloodrider</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -32200,7 +32180,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>brienne-jon snow</t>
+          <t>davos-threeeyed raven</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -32210,7 +32190,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>trystane-nymeria</t>
+          <t>robett-brynden</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -32220,7 +32200,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>davos-threeeyed raven</t>
+          <t>benjen stark-daenerys targaryen</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -32230,7 +32210,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>cersei lannister-rider</t>
+          <t>sparrow-ray</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -32240,7 +32220,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>waif-davos</t>
+          <t>olenna tyrell-sparrow</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -32250,7 +32230,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>euron greyjoy-jorah mormont</t>
+          <t>lady crane-jaqen hghar</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -32260,7 +32240,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>clarenzo-bianca</t>
+          <t>sparrow-doran</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -32270,7 +32250,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>benjen stark-daenerys targaryen</t>
+          <t>glover-qyburn</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -32280,7 +32260,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sparrow-ray</t>
+          <t>clarenzo-gilly</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -32290,7 +32270,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>olenna tyrell-sparrow</t>
+          <t>sparrow-septa unella</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -32300,7 +32280,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>robett-brynden</t>
+          <t>cersei lannister-sansa stark</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -32310,7 +32290,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>glover-qyburn</t>
+          <t>jaime lannister-guard captain</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -32320,7 +32300,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>waif-beric</t>
+          <t>brienne-petyr baelish</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -32330,7 +32310,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>storyteller-kings soldier</t>
+          <t>melisandre-aeron</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -32340,7 +32320,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>tommen lannister-kings soldier</t>
+          <t>daario-ellaria</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -32350,7 +32330,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cersei lannister-sansa stark</t>
+          <t>tommen lannister-kings soldier</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -32360,7 +32340,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>brienne-petyr baelish</t>
+          <t>gilly-edd</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -32370,7 +32350,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>robett-yara greyjoy</t>
+          <t>child of forest-davos</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -32380,7 +32360,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jon snow-tyrion lannister</t>
+          <t>sam-jon snow</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -32390,7 +32370,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>melisandre-tyrion lannister</t>
+          <t>olenna tyrell-sansa stark</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -32400,7 +32380,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ramsay bolton-daenerys targaryen</t>
+          <t>petyr baelish-tyrion lannister</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -32410,7 +32390,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ramsay bolton-edd</t>
+          <t>waif-beric</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -32420,7 +32400,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jaqen hghar-roose</t>
+          <t>jon snow-tyrion lannister</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -32430,7 +32410,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jaime lannister-grand maester pycelle</t>
+          <t>ramsay bolton-edd</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -32440,7 +32420,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>qyburn-margaery tyrell</t>
+          <t>gilly-bran stark</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -32450,7 +32430,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>cersei lannister-sam</t>
+          <t>melisandre-tyrion lannister</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -32460,7 +32440,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>maester wolkan-lady walda</t>
+          <t>cersei lannister-sam</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -32470,7 +32450,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>qyburn-missandei</t>
+          <t>tormund-alliser thorne</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -32480,7 +32460,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>olenna tyrell-sansa stark</t>
+          <t>jaime lannister-grand maester pycelle</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -32490,7 +32470,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ramsay bolton-brienne</t>
+          <t>ramsay bolton-daenerys targaryen</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -32500,7 +32480,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>daario-ellaria</t>
+          <t>qyburn-margaery tyrell</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -32510,7 +32490,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>gilly-bran stark</t>
+          <t>child of forest-bran stark</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -32520,7 +32500,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>sam-jon snow</t>
+          <t>benjen stark-petyr baelish</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -32530,7 +32510,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>benjen stark-petyr baelish</t>
+          <t>loras tyrell-cersei lannister</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -32540,7 +32520,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>gilly-edd</t>
+          <t>glover-jon snow</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -32550,7 +32530,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sansa stark-yara greyjoy</t>
+          <t>khal moro-sansa stark</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -32560,7 +32540,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>vale knight-jon snow</t>
+          <t>robett-yara greyjoy</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -32570,7 +32550,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>glover-jon snow</t>
+          <t>davos-ray</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -32580,7 +32560,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>melisandre-aeron</t>
+          <t>maester wolkan-lady walda</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -32590,7 +32570,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>petyr baelish-tyrion lannister</t>
+          <t>sandor-lem</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -32600,7 +32580,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>margaery tyrell-daenerys targaryen</t>
+          <t>vale knight-jon snow</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -32610,7 +32590,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tommen lannister-grand maester pycelle</t>
+          <t>ramsay bolton-brienne</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -32620,7 +32600,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>tormund-alliser thorne</t>
+          <t>tommen lannister-grand maester pycelle</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -32630,7 +32610,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>sandor-lem</t>
+          <t>jaqen hghar-roose</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -32640,7 +32620,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>davos-ray</t>
+          <t>margaery tyrell-daenerys targaryen</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -32650,7 +32630,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>sparrow-doran</t>
+          <t>leader-daario</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -32660,7 +32640,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>leader-daario</t>
+          <t>sansa stark-yara greyjoy</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -32670,7 +32650,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>sparrow-septa unella</t>
+          <t>daario-grey worm</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -32680,7 +32660,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>loras tyrell-cersei lannister</t>
+          <t>tommen lannister-qyburn</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -32690,7 +32670,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>khal moro-sansa stark</t>
+          <t>qyburn-missandei</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -32700,37 +32680,37 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jaime lannister-guard captain</t>
+          <t>sparrow-mace</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>daario-grey worm</t>
+          <t>olenna tyrell-daario</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>tommen lannister-qyburn</t>
+          <t>benjen stark-sansa stark</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>daenerys targaryen-handmaiden</t>
+          <t>lyanna-bran stark</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -32740,7 +32720,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>benjen stark-sansa stark</t>
+          <t>waif-mace</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -32750,7 +32730,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>sansa stark-handmaiden</t>
+          <t>daenerys targaryen-handmaiden</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -32760,7 +32740,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>arya stark-sandor</t>
+          <t>meera-petyr baelish</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -32770,7 +32750,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>lady crane-gatins</t>
+          <t>walder frey-qyburn</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -32780,7 +32760,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>olenna tyrell-daario</t>
+          <t>waif-izembaro</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -32790,7 +32770,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>meera-petyr baelish</t>
+          <t>sansa stark-handmaiden</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -32800,7 +32780,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>arya stark-ray</t>
+          <t>robett-jaime lannister</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -32810,7 +32790,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>qyburn-varys</t>
+          <t>benjen stark-rider</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -32820,7 +32800,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>lyanna-bran stark</t>
+          <t>theon greyjoy-melisandre</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -32830,7 +32810,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>sparrow-mace</t>
+          <t>theon greyjoy-jon snow</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -32850,7 +32830,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>waif-mace</t>
+          <t>margaery tyrell-doran</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -32860,7 +32840,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>davos-aeron</t>
+          <t>arya stark-ray</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -32870,7 +32850,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>waif-izembaro</t>
+          <t>arya stark-sandor</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -32880,7 +32860,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>robett-jaime lannister</t>
+          <t>lady crane-gatins</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -32900,7 +32880,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>brienne-edmure</t>
+          <t>qyburn-varys</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -32910,7 +32890,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>obara-doran</t>
+          <t>podrick-lancel lannister</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -32920,7 +32900,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>theon greyjoy-cersei lannister</t>
+          <t>jaime lannister-septa unella</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -32930,7 +32910,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tormund-margaery tyrell</t>
+          <t>kevan-brienne</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -32940,7 +32920,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>thoros-grey worm</t>
+          <t>jaime lannister-tyrion lannister</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -32950,7 +32930,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>margaery tyrell-ray</t>
+          <t>edmure-missandei</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -32960,7 +32940,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>jaime lannister-septa unella</t>
+          <t>dim dalba-jon snow</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -32970,7 +32950,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>dim dalba-jon snow</t>
+          <t>tormund-margaery tyrell</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -32980,7 +32960,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>sandor-sparrow</t>
+          <t>theon greyjoy-cersei lannister</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -32990,7 +32970,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>waif-sandor</t>
+          <t>brienne-edmure</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -33000,7 +32980,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>edmure-missandei</t>
+          <t>obara-doran</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -33010,7 +32990,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>benjen stark-rider</t>
+          <t>thoros-grey worm</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -33020,7 +33000,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>daario-varys</t>
+          <t>margaery tyrell-ray</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -33030,7 +33010,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tormund-melisandre</t>
+          <t>sansa stark-roose</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -33040,7 +33020,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>jaime lannister-tyrion lannister</t>
+          <t>waif-sandor</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -33050,7 +33030,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>theon greyjoy-melisandre</t>
+          <t>tormund-melisandre</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -33060,7 +33040,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>sansa stark-roose</t>
+          <t>sandor-sparrow</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -33070,7 +33050,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>kevan-brienne</t>
+          <t>maester wolkan-lord karstark</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -33080,7 +33060,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>margaery tyrell-doran</t>
+          <t>melisandre-yara greyjoy</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -33090,7 +33070,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>walder frey-qyburn</t>
+          <t>threeeyed raven-leaf</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -33100,7 +33080,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>podrick-lancel lannister</t>
+          <t>daenerys targaryen-bran stark</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -33110,7 +33090,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>theon greyjoy-jon snow</t>
+          <t>meera-sansa stark</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -33120,7 +33100,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>melisandre-yara greyjoy</t>
+          <t>vala-tyrion lannister</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -33130,7 +33110,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>arya stark-sparrow</t>
+          <t>davos-petyr baelish</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -33140,7 +33120,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>jaqen hghar-bran stark</t>
+          <t>kinvara-threeeyed raven</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -33150,7 +33130,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>maester wolkan-lord karstark</t>
+          <t>arthur-tyrion lannister</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -33160,7 +33140,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>kinvara-threeeyed raven</t>
+          <t>daario-varys</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -33170,7 +33150,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>daario-lhazareen woman</t>
+          <t>osha-sansa stark</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -33180,7 +33160,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>arthur-tyrion lannister</t>
+          <t>meera-davos</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -33190,7 +33170,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>sam-edd</t>
+          <t>leaf-yara greyjoy</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -33200,7 +33180,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>lady walda-brienne</t>
+          <t>sansa stark-khal</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -33210,7 +33190,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>leaf-yara greyjoy</t>
+          <t>grand maester pycelle-lady olenna</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -33220,7 +33200,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>theon greyjoy-kevan</t>
+          <t>jaqen hghar-bran stark</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -33230,7 +33210,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>storyteller-edd</t>
+          <t>melisandre-sansa stark</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -33250,7 +33230,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>meera-sansa stark</t>
+          <t>lady walda-brienne</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -33260,7 +33240,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>osha-sansa stark</t>
+          <t>waif-sansa stark</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -33270,7 +33250,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>daenerys targaryen-bran stark</t>
+          <t>child of forest-alliser thorne</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -33280,7 +33260,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>sansa stark-khal</t>
+          <t>jaqen hghar-smalljon</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -33290,7 +33270,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>child of forest-alliser thorne</t>
+          <t>theon greyjoy-kevan</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -33300,7 +33280,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>waif-sansa stark</t>
+          <t>arya stark-sparrow</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -33310,7 +33290,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>nan-eddard stark</t>
+          <t>davos-aeron</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -33330,7 +33310,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>meera-davos</t>
+          <t>theon greyjoy-balon greyjoy</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -33340,7 +33320,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>threeeyed raven-gilly</t>
+          <t>sam-edd</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -33350,7 +33330,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>lhazareen woman-jorah mormont</t>
+          <t>tommen lannister-melessa</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -33360,7 +33340,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>vala-tyrion lannister</t>
+          <t>daario-lhazareen woman</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -33370,7 +33350,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>davos-petyr baelish</t>
+          <t>lhazareen woman-jorah mormont</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -33380,7 +33360,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>jaqen hghar-smalljon</t>
+          <t>razdal-yezzan</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -33390,7 +33370,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>grand maester pycelle-lady olenna</t>
+          <t>threeeyed raven-gilly</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -33400,7 +33380,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>razdal-yezzan</t>
+          <t>jaime lannister-kings soldier</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -33410,7 +33390,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>threeeyed raven-leaf</t>
+          <t>nan-eddard stark</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -33420,47 +33400,47 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>theon greyjoy-balon greyjoy</t>
+          <t>sandor-grey worm</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>melisandre-sansa stark</t>
+          <t>razdal-missandei</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>jaime lannister-kings soldier</t>
+          <t>lady walda-sansa stark</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>tommen lannister-melessa</t>
+          <t>meera-alliser thorne</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>robin arryn-brienne</t>
+          <t>thoros-tyrion lannister</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -33470,7 +33450,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>sandor-grey worm</t>
+          <t>bronn-jon snow</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -33480,7 +33460,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>threeeyed raven-daenerys targaryen</t>
+          <t>jaqen hghar-tyrion lannister</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -33490,7 +33470,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>yara greyjoy-jon snow</t>
+          <t>brynden-tyrion lannister</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -33500,7 +33480,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>jaqen hghar-lord karstark</t>
+          <t>benjen stark-lyanna</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -33510,7 +33490,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>lady walda-sansa stark</t>
+          <t>khal moro-jon snow</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -33520,7 +33500,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>trystane-ellaria</t>
+          <t>tyrion lannister-gatins</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -33530,7 +33510,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>theon greyjoy-osha</t>
+          <t>kevan-yara greyjoy</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -33540,7 +33520,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>melisandre-brienne</t>
+          <t>robin arryn-brienne</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -33550,7 +33530,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>meera-alliser thorne</t>
+          <t>robin arryn-grey worm</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -33560,7 +33540,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>tommen lannister-varys</t>
+          <t>loras tyrell-grand maester pycelle</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -33570,7 +33550,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>jaqen hghar-tyrion lannister</t>
+          <t>waif-khal moro</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -33580,7 +33560,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>storyteller-alliser thorne</t>
+          <t>theon greyjoy-osha</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -33590,7 +33570,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>robin arryn-grey worm</t>
+          <t>sandor-varys</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -33600,7 +33580,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>thoros-tyrion lannister</t>
+          <t>arya stark-gatins</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -33610,7 +33590,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>arya stark-gatins</t>
+          <t>melisandre-brienne</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -33620,7 +33600,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>jaime lannister-grey worm</t>
+          <t>yara greyjoy-jon snow</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -33630,7 +33610,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>razdal-missandei</t>
+          <t>jaime lannister-grey worm</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -33640,7 +33620,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>jaime lannister-margaery tyrell</t>
+          <t>sparrow-jorah mormont</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -33650,7 +33630,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>sparrow-jorah mormont</t>
+          <t>brienne-guard captain</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -33660,7 +33640,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>bronn-jon snow</t>
+          <t>jaime lannister-margaery tyrell</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -33670,7 +33650,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>brienne-guard captain</t>
+          <t>dickon-melessa</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -33680,7 +33660,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>sparrow-ellaria</t>
+          <t>clarenzo-izembaro</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -33690,7 +33670,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>qyburn-maester</t>
+          <t>sparrow-ellaria</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -33700,7 +33680,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>loras tyrell-grand maester pycelle</t>
+          <t>jaqen hghar-leaf</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -33710,7 +33690,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>brynden-tyrion lannister</t>
+          <t>melessa-sparrow</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -33720,7 +33700,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>maester-melisandre</t>
+          <t>melisandre-alliser thorne</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -33730,7 +33710,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>kevan-grand maester pycelle</t>
+          <t>trystane-ellaria</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -33740,7 +33720,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>kevan-yara greyjoy</t>
+          <t>threeeyed raven-daenerys targaryen</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -33750,7 +33730,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>sandor-varys</t>
+          <t>nymeria-varys</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -33760,7 +33740,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>tyrion lannister-gatins</t>
+          <t>balon greyjoy-aeron</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -33780,7 +33760,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>khal moro-jon snow</t>
+          <t>maester-melisandre</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -33790,7 +33770,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>clarenzo-izembaro</t>
+          <t>jaqen hghar-lord karstark</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -33800,7 +33780,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>dickon-melessa</t>
+          <t>qyburn-maester</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -33810,7 +33790,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>jaqen hghar-leaf</t>
+          <t>margaery tyrell-sandor</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -33820,7 +33800,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>tormund-gilly</t>
+          <t>yara greyjoy-bran stark</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -33830,7 +33810,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>melessa-sparrow</t>
+          <t>tommen lannister-varys</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -33840,7 +33820,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>margaery tyrell-sandor</t>
+          <t>olenna tyrell-tormund</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -33850,7 +33830,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>arya stark-bran stark</t>
+          <t>olenna tyrell-bronn</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -33860,7 +33840,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>sam-bran stark</t>
+          <t>tormund-gilly</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -33870,7 +33850,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>nymeria-varys</t>
+          <t>camello-clarenzo</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -33880,7 +33860,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>petyr baelish-handmaiden</t>
+          <t>arya stark-bran stark</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -33890,7 +33870,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>melisandre-alliser thorne</t>
+          <t>sam-bran stark</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -33910,7 +33890,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>yara greyjoy-bran stark</t>
+          <t>petyr baelish-handmaiden</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -33920,7 +33900,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>olenna tyrell-tormund</t>
+          <t>kevan-grand maester pycelle</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -33930,57 +33910,57 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>balon greyjoy-aeron</t>
+          <t>qyburn-kevan</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>waif-khal moro</t>
+          <t>maester-davos</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>benjen stark-lyanna</t>
+          <t>tormund-kings soldier</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>camello-clarenzo</t>
+          <t>gilly-jon snow</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>olenna tyrell-bronn</t>
+          <t>obara-sansa stark</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>sam-rider</t>
+          <t>petyr baelish-missandei</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -33990,7 +33970,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>petyr baelish-missandei</t>
+          <t>robin arryn-tyrion lannister</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -34000,7 +33980,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>gilly-rider</t>
+          <t>tormund-sam</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -34010,7 +33990,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>hodor-leaf</t>
+          <t>robin arryn-davos</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -34020,7 +34000,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>tommen lannister-black walder</t>
+          <t>cersei lannister-maester</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -34030,7 +34010,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>arya stark-alliser thorne</t>
+          <t>sam-threeeyed raven</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -34040,7 +34020,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>robin arryn-tyrion lannister</t>
+          <t>edmure-tyrion lannister</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -34050,7 +34030,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>jaime lannister-mace</t>
+          <t>jaime lannister-sam</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -34060,7 +34040,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>edmure-tyrion lannister</t>
+          <t>razdal-ramsay bolton</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -34070,7 +34050,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>lyanna-meera</t>
+          <t>tommen lannister-lancel lannister</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -34080,7 +34060,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>leader-dothraki</t>
+          <t>tommen lannister-loras tyrell</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -34090,7 +34070,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>threeeyed raven-sansa stark</t>
+          <t>tormund-smalljon</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -34100,7 +34080,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>melisandre-edd</t>
+          <t>tormund-yara greyjoy</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -34110,7 +34090,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>jaqen hghar-sansa stark</t>
+          <t>davos-daenerys targaryen</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -34120,7 +34100,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>tommen lannister-lancel lannister</t>
+          <t>walder frey-sansa stark</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -34130,7 +34110,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>balon greyjoy-sansa stark</t>
+          <t>beric-grey worm</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -34140,7 +34120,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>jaqen hghar-captain</t>
+          <t>obara-tyrion lannister</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -34150,7 +34130,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>tommen lannister-waif</t>
+          <t>jon snow-smalljon</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -34160,7 +34140,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>sam-bobono</t>
+          <t>tommen lannister-waif</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -34170,7 +34150,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>jon snow-smalljon</t>
+          <t>brynden-cersei lannister</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -34180,7 +34160,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>davos-daenerys targaryen</t>
+          <t>arya stark-tyrion lannister</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -34190,7 +34170,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>razdal-ramsay bolton</t>
+          <t>leader-dothraki</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -34200,7 +34180,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>tormund-yara greyjoy</t>
+          <t>lyanna-sansa stark</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -34210,7 +34190,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>arya stark-khal moro</t>
+          <t>arya stark-petyr baelish</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -34220,7 +34200,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>tormund-smalljon</t>
+          <t>arya stark-alliser thorne</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -34230,7 +34210,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>tommen lannister-loras tyrell</t>
+          <t>arya stark-khal moro</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -34240,7 +34220,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>vale knight-eddard stark</t>
+          <t>olenna tyrell-jaime lannister</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -34250,7 +34230,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>robin arryn-davos</t>
+          <t>margaery tyrell-jon snow</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -34260,7 +34240,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>dickon-margaery tyrell</t>
+          <t>arya stark-leaf</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -34270,7 +34250,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>arya stark-tyrion lannister</t>
+          <t>daenerys targaryen-aeron</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -34280,7 +34260,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>maester wolkan-roose</t>
+          <t>daario-bran stark</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -34290,7 +34270,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>beric-grey worm</t>
+          <t>varys-bran stark</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -34300,7 +34280,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>jaime lannister-meera</t>
+          <t>cersei lannister-bran stark</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -34310,7 +34290,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>jaime lannister-sam</t>
+          <t>threeeyed raven-sansa stark</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -34320,7 +34300,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>arya stark-leaf</t>
+          <t>jaime lannister-meera</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -34340,7 +34320,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>gilly-jon snow</t>
+          <t>nymeria-ellaria</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -34350,7 +34330,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>cersei lannister-yara greyjoy</t>
+          <t>tommen lannister-black walder</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -34360,7 +34340,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>obara-tyrion lannister</t>
+          <t>hodor-leaf</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -34370,7 +34350,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>osha-yara greyjoy</t>
+          <t>gilly-rider</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -34380,7 +34360,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>walder frey-sansa stark</t>
+          <t>sam-rider</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -34390,7 +34370,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>margaery tyrell-jon snow</t>
+          <t>jaime lannister-mace</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -34400,7 +34380,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>obara-sansa stark</t>
+          <t>jaqen hghar-captain</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -34410,7 +34390,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>maester-davos</t>
+          <t>dickon-margaery tyrell</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -34420,7 +34400,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>sam-threeeyed raven</t>
+          <t>maester wolkan-roose</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -34430,7 +34410,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>jon snow-khal</t>
+          <t>sam-bobono</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -34440,7 +34420,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>daenerys targaryen-ellaria</t>
+          <t>margaery tyrell-ellaria</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -34450,7 +34430,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>olenna tyrell-jaime lannister</t>
+          <t>waif-daenerys targaryen</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -34460,7 +34440,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>arya stark-petyr baelish</t>
+          <t>daenerys targaryen-ellaria</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -34470,7 +34450,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>lyanna-sansa stark</t>
+          <t>lyanna-meera</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -34480,7 +34460,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>varys-gatins</t>
+          <t>melisandre-edd</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -34490,7 +34470,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>waif-daenerys targaryen</t>
+          <t>varys-gatins</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -34500,7 +34480,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>daenerys targaryen-aeron</t>
+          <t>margaery tyrell-jorah mormont</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -34510,7 +34490,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>nymeria-ellaria</t>
+          <t>brienne-lancel lannister</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -34520,7 +34500,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>brienne-lancel lannister</t>
+          <t>cersei lannister-yara greyjoy</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -34530,7 +34510,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>qyburn-kevan</t>
+          <t>jon snow-khal</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -34540,7 +34520,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>margaery tyrell-jorah mormont</t>
+          <t>vale knight-eddard stark</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -34550,7 +34530,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>cersei lannister-maester</t>
+          <t>osha-yara greyjoy</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -34560,7 +34540,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>margaery tyrell-ellaria</t>
+          <t>balon greyjoy-sansa stark</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -34570,7 +34550,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>cersei lannister-bran stark</t>
+          <t>jaqen hghar-sansa stark</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -34580,57 +34560,57 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>varys-bran stark</t>
+          <t>lhazareen woman-dothraki</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>tormund-kings soldier</t>
+          <t>walder frey-sam</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>daario-bran stark</t>
+          <t>jaime lannister-rider</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>tormund-sam</t>
+          <t>sansa stark-bran stark</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>brynden-cersei lannister</t>
+          <t>handmaiden-tyrion lannister</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>walder frey-sam</t>
+          <t>edmure-grey worm</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -34640,7 +34620,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>olenna tyrell-daenerys targaryen</t>
+          <t>meera-jon snow</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -34650,7 +34630,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>tommen lannister-arya stark</t>
+          <t>dickon-randyll</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -34660,7 +34640,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>tormund-daenerys targaryen</t>
+          <t>nymeria-doran</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -34670,7 +34650,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>handmaiden-tyrion lannister</t>
+          <t>tommen lannister-lady olenna</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -34680,7 +34660,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>obara-jon snow</t>
+          <t>tommen lannister-dickon</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -34690,7 +34670,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>walder frey-petyr baelish</t>
+          <t>olenna tyrell-daenerys targaryen</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -34700,7 +34680,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>nights watchman-edd</t>
+          <t>bobono-gilly</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -34710,7 +34690,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>cersei lannister-edd</t>
+          <t>obara-jon snow</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -34720,7 +34700,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ramsay bolton-arya stark</t>
+          <t>leader-jorah mormont</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -34730,7 +34710,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>tommen lannister-lady olenna</t>
+          <t>jaqen hghar-sparrow</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -34740,7 +34720,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>tormund-khal moro</t>
+          <t>waif-captain</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -34750,7 +34730,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>brynden-davos</t>
+          <t>tommen lannister-missandei</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -34760,7 +34740,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>nymeria-doran</t>
+          <t>alliser thorne-bran stark</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -34770,7 +34750,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>alliser thorne-bran stark</t>
+          <t>beric-tyrion lannister</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -34780,7 +34760,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>jaqen hghar-bobono</t>
+          <t>cersei lannister-bolton officer</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -34790,7 +34770,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>dim dalba-olenna tyrell</t>
+          <t>ramsay bolton-alliser throne</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -34800,7 +34780,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>aeron-jorah mormont</t>
+          <t>brynden-davos</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -34820,7 +34800,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>jaime lannister-rider</t>
+          <t>arya stark-beric</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -34830,7 +34810,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>tyrion lannister-bran stark</t>
+          <t>arya stark-daenerys targaryen</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -34840,7 +34820,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>sansa stark-bran stark</t>
+          <t>walder frey-petyr baelish</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -34850,7 +34830,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>meera-jon snow</t>
+          <t>ramsay bolton-arya stark</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -34860,7 +34840,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>jaqen hghar-sparrow</t>
+          <t>ramsay bolton-tyrion lannister</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -34870,7 +34850,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>arya stark-daenerys targaryen</t>
+          <t>tommen lannister-arya stark</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -34880,7 +34860,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>waif-captain</t>
+          <t>razdal-jon snow</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -34890,7 +34870,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>tommen lannister-dickon</t>
+          <t>brynden-kevan</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -34900,7 +34880,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>bobono-gilly</t>
+          <t>tormund-khal moro</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -34910,7 +34890,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>osha-jon snow</t>
+          <t>jaqen hghar-bobono</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -34920,7 +34900,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ray-jon snow</t>
+          <t>dim dalba-olenna tyrell</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -34930,7 +34910,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>beric-tyrion lannister</t>
+          <t>nights watchman-edd</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -34940,7 +34920,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>leader-jorah mormont</t>
+          <t>osha-jon snow</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -34950,7 +34930,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ramsay bolton-alliser throne</t>
+          <t>cersei lannister-edd</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -34960,7 +34940,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>edmure-grey worm</t>
+          <t>tormund-daenerys targaryen</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -34970,7 +34950,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>tommen lannister-missandei</t>
+          <t>aeron-jorah mormont</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -34980,7 +34960,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>razdal-jon snow</t>
+          <t>ray-jon snow</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -34990,7 +34970,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ramsay bolton-tyrion lannister</t>
+          <t>tyrion lannister-bran stark</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -35000,57 +34980,57 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>dickon-randyll</t>
+          <t>vale knight-glover</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>lhazareen woman-dothraki</t>
+          <t>qyburn-jon snow</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>brynden-kevan</t>
+          <t>meera-eddard stark</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>cersei lannister-bolton officer</t>
+          <t>trystane-tyrion lannister</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>arya stark-beric</t>
+          <t>melisandre-sam</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>bronn-lancel lannister</t>
+          <t>arthur-gilly</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -35060,7 +35040,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>brynden-grey worm</t>
+          <t>lady crane-waif</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -35070,7 +35050,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>meera-eddard stark</t>
+          <t>izembaro-mace</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -35080,7 +35060,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>jaime lannister-sansa stark</t>
+          <t>theon greyjoy-aeron</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -35090,7 +35070,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>kevan-sparrow</t>
+          <t>dim dalba-cersei lannister</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -35100,7 +35080,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>lady crane-waif</t>
+          <t>davos-jaime lannister</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -35110,7 +35090,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>vale knight-glover</t>
+          <t>tormund-khal</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -35120,7 +35100,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>qyburn-jon snow</t>
+          <t>sansa stark-ray</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -35130,7 +35110,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>theon greyjoy-aeron</t>
+          <t>theon greyjoy-jaime lannister</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -35140,7 +35120,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>dim dalba-cersei lannister</t>
+          <t>tyrion lannister-lancel lannister</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -35150,7 +35130,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>qyburn-grey worm</t>
+          <t>nan-lyanna stark</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -35160,7 +35140,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>cersei lannister-alliser thorne</t>
+          <t>bronn-lancel lannister</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -35170,7 +35150,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>melisandre-nights watchman</t>
+          <t>podrick-jaime lannister</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -35180,7 +35160,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>podrick-jaime lannister</t>
+          <t>qyburn-grey worm</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -35190,7 +35170,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>melisandre-sam</t>
+          <t>brynden-grey worm</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -35200,7 +35180,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>theon greyjoy-jaime lannister</t>
+          <t>arya stark-smalljon</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -35210,7 +35190,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>tyrion lannister-lancel lannister</t>
+          <t>kevan-sparrow</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -35220,7 +35200,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>threeeyed raven-dothraki matron</t>
+          <t>cersei lannister-alliser thorne</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -35230,7 +35210,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>arya stark-smalljon</t>
+          <t>tyrion lannister-little bird</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -35240,7 +35220,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>sansa stark-ray</t>
+          <t>kings soldier-edd</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -35250,7 +35230,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>tormund-khal</t>
+          <t>melisandre-nights watchman</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -35260,7 +35240,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>arthur-gilly</t>
+          <t>threeeyed raven-dothraki matron</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -35270,60 +35250,10 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>davos-jaime lannister</t>
+          <t>jaime lannister-sansa stark</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>kings soldier-edd</t>
-        </is>
-      </c>
-      <c r="B577" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>tyrion lannister-little bird</t>
-        </is>
-      </c>
-      <c r="B578" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>nan-lyanna stark</t>
-        </is>
-      </c>
-      <c r="B579" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>trystane-tyrion lannister</t>
-        </is>
-      </c>
-      <c r="B580" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>izembaro-mace</t>
-        </is>
-      </c>
-      <c r="B581" t="n">
         <v>1</v>
       </c>
     </row>

--- a/project/Game_of_Thrones_Filtered_Interactions.xlsx
+++ b/project/Game_of_Thrones_Filtered_Interactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9effe9a53c43cb2/DTU/7. Semester/Social Graphs/Project/socialegraphs23/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0CF7A438EF74F6CB982A937EC00A157C169326B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562DAAA7-AE50-4CDD-AC06-DD92AA568F9C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0CF7A438EF74F6CB982A937EC00A157C169326B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B062EF00-F1DD-4B66-8497-CCB79D6F1F16}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Season 1" sheetId="1" r:id="rId1"/>
@@ -8649,6 +8649,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18887,7 +18891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B615"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -39122,9 +39126,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
